--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cms\eCoaching_V2\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cms\eCoaching_V2\Design\DD\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,38 +13,40 @@
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="14" r:id="rId1"/>
-    <sheet name="DIM_Source" sheetId="1" r:id="rId2"/>
-    <sheet name="DIM_Status" sheetId="2" r:id="rId3"/>
-    <sheet name="DIM_Site" sheetId="3" r:id="rId4"/>
-    <sheet name="DIM_Coaching_Reason" sheetId="4" r:id="rId5"/>
-    <sheet name="DIM_Sub_Coaching_Reason" sheetId="5" r:id="rId6"/>
-    <sheet name="Historical_Source" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="DIM_Module" sheetId="7" r:id="rId8"/>
-    <sheet name="Employee_Selection" sheetId="8" r:id="rId9"/>
-    <sheet name="Module_Submission" sheetId="9" r:id="rId10"/>
-    <sheet name="DIM_Program" sheetId="10" r:id="rId11"/>
-    <sheet name="Coaching_Reason_Selection" sheetId="11" r:id="rId12"/>
-    <sheet name="CallID_Selection" sheetId="12" r:id="rId13"/>
-    <sheet name="Email_Notifications" sheetId="13" r:id="rId14"/>
-    <sheet name="ETS_Description" sheetId="15" r:id="rId15"/>
-    <sheet name="DIM_Behavior" sheetId="16" r:id="rId16"/>
-    <sheet name="Survey_DIM_Type" sheetId="17" r:id="rId17"/>
-    <sheet name="Survey_DIM_Question" sheetId="18" r:id="rId18"/>
-    <sheet name="Survey_DIM_Response" sheetId="19" r:id="rId19"/>
-    <sheet name="Survey_DIM_QAnswer" sheetId="20" r:id="rId20"/>
-    <sheet name="HR_Access" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId2"/>
+    <sheet name="DIM_Source" sheetId="1" r:id="rId3"/>
+    <sheet name="DIM_Status" sheetId="2" r:id="rId4"/>
+    <sheet name="DIM_Site" sheetId="3" r:id="rId5"/>
+    <sheet name="DIM_Coaching_Reason" sheetId="4" r:id="rId6"/>
+    <sheet name="DIM_Sub_Coaching_Reason" sheetId="5" r:id="rId7"/>
+    <sheet name="Historical_Source" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="DIM_Module" sheetId="7" r:id="rId9"/>
+    <sheet name="Employee_Selection" sheetId="8" r:id="rId10"/>
+    <sheet name="Module_Submission" sheetId="9" r:id="rId11"/>
+    <sheet name="DIM_Program" sheetId="10" r:id="rId12"/>
+    <sheet name="Coaching_Reason_Selection" sheetId="11" r:id="rId13"/>
+    <sheet name="CallID_Selection" sheetId="12" r:id="rId14"/>
+    <sheet name="Email_Notifications" sheetId="13" r:id="rId15"/>
+    <sheet name="ETS_Description" sheetId="15" r:id="rId16"/>
+    <sheet name="DIM_Behavior" sheetId="16" r:id="rId17"/>
+    <sheet name="Survey_DIM_Type" sheetId="17" r:id="rId18"/>
+    <sheet name="Survey_DIM_Question" sheetId="18" r:id="rId19"/>
+    <sheet name="Survey_DIM_Response" sheetId="19" r:id="rId20"/>
+    <sheet name="Survey_DIM_QAnswer" sheetId="20" r:id="rId21"/>
+    <sheet name="HR_Access" sheetId="21" r:id="rId22"/>
+    <sheet name="NPN Description" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Coaching_Reason_Selection!$A$1:$P$292</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DIM_Source!$A$1:$H$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Email_Notifications!$A$1:$K$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Coaching_Reason_Selection!$A$1:$P$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DIM_Source!$A$1:$H$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Email_Notifications!$A$1:$K$115</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="828">
   <si>
     <t>SourceID</t>
   </si>
@@ -2490,6 +2492,45 @@
   </si>
   <si>
     <t>Call Efficiency</t>
+  </si>
+  <si>
+    <t>NPNCode</t>
+  </si>
+  <si>
+    <t>NPNDescription</t>
+  </si>
+  <si>
+    <t>#NPNFFM1</t>
+  </si>
+  <si>
+    <t>When completing an application, CSRs are required to ask consumers the question “Tell us if you’re getting help from one of these people.”  If the consumer indicates that they are receiving help from a Navigator, Certified Application Counselor, Agent/Broker, or non-Navigator assistance personnel, the CSR must enter the national producer number (NPN) in the appropriate field.    On this call a new application was started but the consumer was not asked if he or she had been assisted. Please make certain to ask this required question on future calls. #NPNFFM1</t>
+  </si>
+  <si>
+    <t>#NPNFFM2</t>
+  </si>
+  <si>
+    <t>When completing an application, CSRs are required to ask consumers the question “Tell us if you’re getting help from one of these people.”  If the consumer indicates that they are receiving help from a Navigator, Certified Application Counselor, Agent/Broker, or non-Navigator assistance personnel, the CSR must enter the national producer number (NPN) in the appropriate field.    On this call a new application was started, the consumer indicated they had assistance, but the NPN was not entered in the appropriate field. Please make certain to enter the NPN information correctly on future calls. #NPNFFM2</t>
+  </si>
+  <si>
+    <t>#NPNFFM3</t>
+  </si>
+  <si>
+    <t>When updating an application, CSRs are required to ask consumers the question “Tell us if you’re getting help from one of these people.”  If the consumer indicates that they are receiving help from a Navigator, Certified Application Counselor, Agent/Broker, or non-Navigator assistance personnel, the CSR must enter the national producer number (NPN) in the appropriate field.    On this call the application was updated using Reporting a Life Change but the consumer was not asked if he or she had been assisted. Please make certain to ask this required question on future calls. #NPNFFM3</t>
+  </si>
+  <si>
+    <t>#NPNFFM4</t>
+  </si>
+  <si>
+    <t>When updating an application, CSRs are required to ask consumers the question “Tell us if you’re getting help from one of these people.”  If the consumer indicates that they are receiving help from a Navigator, Certified Application Counselor, Agent/Broker, or non-Navigator assistance personnel, the CSR must enter the national producer number (NPN) in the appropriate field.    On this call the application was updated using Reporting a Life Change and the consumer indicated they had assistance, but the NPN was not entered in the appropriate field. Please make certain to enter the NPN information correctly on future calls. #NPNFFM4</t>
+  </si>
+  <si>
+    <t>#NPNFFM5</t>
+  </si>
+  <si>
+    <t>When updating an application, CSRs are required to ask consumers the question “Tell us if you’re getting help from one of these people.”  If the consumer indicates that they are receiving help from a Navigator, Certified Application Counselor, Agent/Broker, or non-Navigator assistance personnel, the CSR must enter the national producer number (NPN) in the appropriate field.    On this call the application was updated using Reporting a Life Change. There was data in the application indicating the consumer was assisted. The consumer was not asked if he or she had been assisted in order to confirm the validity of the information in the application. Please make certain to ask this required question on future calls. #NPNFFM5</t>
+  </si>
+  <si>
+    <t>Added NPN Description tab</t>
   </si>
 </sst>
 </file>
@@ -2854,7 +2895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3714,6 +3755,23 @@
         <v>813</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1">
+        <v>42797</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
+      <c r="D51">
+        <v>5653</v>
+      </c>
+      <c r="E51" t="s">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3721,6 +3779,435 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>690</v>
+      </c>
+      <c r="B17" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
@@ -5067,7 +5554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5135,7 +5622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P306"/>
   <sheetViews>
@@ -20451,7 +20938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -20579,7 +21066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K161"/>
   <sheetViews>
@@ -26242,7 +26729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -26420,7 +26907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -26465,7 +26952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -26553,7 +27040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -26759,7 +27246,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -26974,1910 +27473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>118</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>119</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>120</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>439</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>122</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>471</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>490</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>491</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>128</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>561</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>129</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>562</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>706</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>754</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>201</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>203</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>204</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>205</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>207</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>208</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>209</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>211</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>212</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>213</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>215</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>216</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>217</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>218</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>219</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>220</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>439</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>221</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>222</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>472</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>223</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>470</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>471</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>225</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>489</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>226</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>490</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>227</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>491</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>228</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>561</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>229</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>562</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>230</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>706</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>231</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>754</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -29524,7 +28120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -29799,7 +28395,1977 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>706</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>754</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>220</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>439</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>221</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>222</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>472</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>223</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>470</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>224</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>471</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>490</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>227</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>491</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>228</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>561</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>229</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>562</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>230</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>706</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>231</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>754</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -29904,7 +30470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -30219,7 +30785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -30694,7 +31260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B239"/>
   <sheetViews>
@@ -32623,7 +33189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -33169,7 +33735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -33320,433 +33886,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>688</v>
-      </c>
-      <c r="B14" t="s">
-        <v>689</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>329</v>
-      </c>
-      <c r="B16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>690</v>
-      </c>
-      <c r="B17" t="s">
-        <v>691</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="832">
   <si>
     <t>SourceID</t>
   </si>
@@ -2531,6 +2531,18 @@
   </si>
   <si>
     <t>Added NPN Description tab</t>
+  </si>
+  <si>
+    <t>updated DIM_Coaching_Reason andDIM_SubCoaching_Reason tabs to add values for Breaks feeds</t>
+  </si>
+  <si>
+    <t>Breaks</t>
+  </si>
+  <si>
+    <t>Exceed Number of Breaks</t>
+  </si>
+  <si>
+    <t>Exceed Break Length</t>
   </si>
 </sst>
 </file>
@@ -2895,9 +2907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3770,6 +3784,23 @@
       </c>
       <c r="E51" t="s">
         <v>827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" s="1">
+        <v>42838</v>
+      </c>
+      <c r="C52" t="s">
+        <v>432</v>
+      </c>
+      <c r="D52">
+        <v>6145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -30787,11 +30818,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
-    </sheetView>
+    <sheetView topLeftCell="A30" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -31255,6 +31284,14 @@
         <v>814</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31262,9 +31299,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -33182,6 +33219,22 @@
       </c>
       <c r="B239" t="s">
         <v>809</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>831</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="834">
   <si>
     <t>SourceID</t>
   </si>
@@ -2543,6 +2543,12 @@
   </si>
   <si>
     <t>Exceed Break Length</t>
+  </si>
+  <si>
+    <t>InDirect</t>
+  </si>
+  <si>
+    <t>Updated Email_Notification tab to add Email attributes for Quality Module and Outlier feed with Pending quality Lead Review status</t>
   </si>
 </sst>
 </file>
@@ -2907,11 +2913,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3801,6 +3805,23 @@
       </c>
       <c r="E52" t="s">
         <v>828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42850</v>
+      </c>
+      <c r="C53" t="s">
+        <v>432</v>
+      </c>
+      <c r="D53">
+        <v>6377</v>
+      </c>
+      <c r="E53" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -21099,11 +21120,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection sqref="A1:K161"/>
-    </sheetView>
+    <sheetView topLeftCell="A121" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21157,7 +21176,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>378</v>
@@ -21166,22 +21185,22 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I2" t="s">
-        <v>708</v>
+        <v>379</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -21192,7 +21211,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>378</v>
@@ -21201,22 +21220,22 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I3" t="s">
-        <v>708</v>
+        <v>391</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -21227,7 +21246,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>378</v>
@@ -21236,22 +21255,22 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I4" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -21262,7 +21281,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>378</v>
@@ -21271,22 +21290,22 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I5" t="s">
-        <v>708</v>
+        <v>393</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -21297,7 +21316,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>378</v>
@@ -21306,22 +21325,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I6" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -21332,7 +21351,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
@@ -21341,22 +21360,22 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I7" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -21367,7 +21386,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
@@ -21376,22 +21395,22 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I8" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -21402,7 +21421,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
@@ -21411,22 +21430,22 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>708</v>
+        <v>394</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -21437,31 +21456,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I10" t="s">
-        <v>709</v>
+        <v>392</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -21472,31 +21491,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I11" t="s">
-        <v>710</v>
+        <v>393</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21507,31 +21526,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I12" t="s">
-        <v>710</v>
+        <v>379</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -21542,31 +21561,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>562</v>
+        <v>439</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I13" t="s">
-        <v>710</v>
+        <v>379</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -21577,31 +21596,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I14" t="s">
-        <v>710</v>
+        <v>379</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -21621,22 +21640,22 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>561</v>
+        <v>439</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I15" t="s">
-        <v>711</v>
+        <v>379</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -21647,7 +21666,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
         <v>378</v>
@@ -21656,7 +21675,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -21671,7 +21690,7 @@
         <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>711</v>
+        <v>395</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -21682,7 +21701,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>378</v>
@@ -21691,22 +21710,22 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I17" t="s">
-        <v>711</v>
+        <v>396</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -21717,7 +21736,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>378</v>
@@ -21726,22 +21745,22 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>562</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I18" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -21752,7 +21771,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>378</v>
@@ -21761,22 +21780,22 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H19" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I19" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -21787,7 +21806,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
         <v>378</v>
@@ -21796,22 +21815,22 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I20" t="s">
-        <v>711</v>
+        <v>398</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -21822,7 +21841,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>378</v>
@@ -21831,22 +21850,22 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I21" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -21857,7 +21876,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>378</v>
@@ -21866,22 +21885,22 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H22" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I22" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -21892,7 +21911,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>378</v>
@@ -21901,22 +21920,22 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I23" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -21927,7 +21946,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
         <v>378</v>
@@ -21936,7 +21955,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -21951,7 +21970,7 @@
         <v>383</v>
       </c>
       <c r="I24" t="s">
-        <v>708</v>
+        <v>396</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -21962,31 +21981,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I25" t="s">
-        <v>710</v>
+        <v>397</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -21997,31 +22016,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
         <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I26" t="s">
-        <v>710</v>
+        <v>398</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -22032,31 +22051,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I27" t="s">
-        <v>710</v>
+        <v>398</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -22067,7 +22086,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>378</v>
@@ -22076,7 +22095,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -22091,7 +22110,7 @@
         <v>384</v>
       </c>
       <c r="I28" t="s">
-        <v>710</v>
+        <v>399</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -22102,31 +22121,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
         <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
         <v>380</v>
       </c>
       <c r="H29" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I29" t="s">
-        <v>711</v>
+        <v>411</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -22137,31 +22156,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
         <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
         <v>380</v>
       </c>
       <c r="H30" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I30" t="s">
-        <v>711</v>
+        <v>412</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -22172,31 +22191,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
         <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
         <v>380</v>
       </c>
       <c r="H31" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I31" t="s">
-        <v>711</v>
+        <v>413</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -22207,31 +22226,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
         <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>562</v>
+        <v>171</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G32" t="s">
         <v>380</v>
       </c>
       <c r="H32" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I32" t="s">
-        <v>711</v>
+        <v>413</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -22242,31 +22261,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
         <v>380</v>
       </c>
       <c r="H33" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I33" t="s">
-        <v>711</v>
+        <v>412</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -22277,31 +22296,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
         <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I34" t="s">
-        <v>711</v>
+        <v>414</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -22312,7 +22331,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
         <v>378</v>
@@ -22321,22 +22340,22 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G35" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H35" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I35" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -22347,31 +22366,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>706</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="G36" t="s">
         <v>425</v>
       </c>
       <c r="H36" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I36" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -22382,31 +22401,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>706</v>
+        <v>171</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G37" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I37" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -22417,31 +22436,31 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>706</v>
+        <v>176</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G38" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="H38" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I38" t="s">
-        <v>711</v>
+        <v>416</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -22452,31 +22471,31 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
         <v>378</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="H39" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I39" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -22487,31 +22506,31 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>754</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I40" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -22522,31 +22541,31 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>754</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H41" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I41" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -22557,37 +22576,37 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>754</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I42" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -22595,34 +22614,34 @@
         <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I43" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -22633,25 +22652,25 @@
         <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="H44" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -22668,25 +22687,25 @@
         <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H45" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -22703,25 +22722,25 @@
         <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H46" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I46" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -22738,25 +22757,25 @@
         <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H47" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I47" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -22773,25 +22792,25 @@
         <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H48" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -22808,25 +22827,25 @@
         <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H49" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -22843,10 +22862,10 @@
         <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -22861,7 +22880,7 @@
         <v>381</v>
       </c>
       <c r="I50" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -22878,10 +22897,10 @@
         <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -22896,7 +22915,7 @@
         <v>381</v>
       </c>
       <c r="I51" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -22907,7 +22926,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>378</v>
@@ -22916,22 +22935,22 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I52" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -22942,7 +22961,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>378</v>
@@ -22951,22 +22970,22 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G53" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H53" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I53" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -22977,7 +22996,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
         <v>378</v>
@@ -22986,22 +23005,22 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>439</v>
+        <v>9</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G54" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H54" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I54" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -23021,22 +23040,22 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>439</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H55" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I55" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -23047,7 +23066,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
         <v>378</v>
@@ -23056,22 +23075,22 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G56" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H56" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I56" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -23082,7 +23101,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
         <v>378</v>
@@ -23091,10 +23110,10 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>177</v>
@@ -23103,10 +23122,10 @@
         <v>425</v>
       </c>
       <c r="H57" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I57" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -23117,7 +23136,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
         <v>378</v>
@@ -23126,7 +23145,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -23152,7 +23171,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>378</v>
@@ -23161,7 +23180,7 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -23176,7 +23195,7 @@
         <v>383</v>
       </c>
       <c r="I59" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -23187,7 +23206,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
         <v>378</v>
@@ -23196,7 +23215,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -23211,7 +23230,7 @@
         <v>383</v>
       </c>
       <c r="I60" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -23222,7 +23241,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
         <v>378</v>
@@ -23231,7 +23250,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -23246,7 +23265,7 @@
         <v>383</v>
       </c>
       <c r="I61" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -23257,31 +23276,31 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
         <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G62" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H62" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="I62" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -23292,31 +23311,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
         <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H63" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="I63" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -23327,31 +23346,31 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
         <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G64" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H64" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="I64" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -23368,25 +23387,25 @@
         <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H65" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I65" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -23403,25 +23422,25 @@
         <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H66" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I66" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -23438,25 +23457,25 @@
         <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H67" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I67" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -23476,22 +23495,22 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H68" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I68" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -23502,31 +23521,31 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s">
         <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
         <v>380</v>
       </c>
       <c r="H69" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I69" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -23537,31 +23556,31 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
         <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
         <v>380</v>
       </c>
       <c r="H70" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I70" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -23572,31 +23591,31 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
         <v>380</v>
       </c>
       <c r="H71" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I71" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -23607,31 +23626,31 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
         <v>380</v>
       </c>
       <c r="H72" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I72" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -23642,31 +23661,31 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
         <v>378</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
         <v>380</v>
       </c>
       <c r="H73" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I73" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -23677,31 +23696,31 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="G74" t="s">
         <v>425</v>
       </c>
       <c r="H74" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I74" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -23712,31 +23731,31 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
         <v>175</v>
       </c>
-      <c r="B75" t="s">
-        <v>378</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" t="s">
-        <v>425</v>
-      </c>
       <c r="H75" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I75" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -23750,28 +23769,28 @@
         <v>175</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H76" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I76" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -23782,7 +23801,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s">
         <v>378</v>
@@ -23791,7 +23810,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -23806,7 +23825,7 @@
         <v>383</v>
       </c>
       <c r="I77" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -23817,7 +23836,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s">
         <v>378</v>
@@ -23826,7 +23845,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -23841,7 +23860,7 @@
         <v>383</v>
       </c>
       <c r="I78" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -23852,31 +23871,31 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s">
         <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>489</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H79" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I79" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -23887,31 +23906,31 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s">
         <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -23922,31 +23941,31 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s">
         <v>378</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>491</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I81" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -23957,7 +23976,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s">
         <v>378</v>
@@ -23966,7 +23985,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -23981,7 +24000,7 @@
         <v>384</v>
       </c>
       <c r="I82" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -23992,7 +24011,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B83" t="s">
         <v>378</v>
@@ -24001,7 +24020,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -24016,7 +24035,7 @@
         <v>384</v>
       </c>
       <c r="I83" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -24027,7 +24046,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
         <v>378</v>
@@ -24036,7 +24055,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>489</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -24051,7 +24070,7 @@
         <v>384</v>
       </c>
       <c r="I84" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -24062,7 +24081,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s">
         <v>378</v>
@@ -24071,7 +24090,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -24086,7 +24105,7 @@
         <v>384</v>
       </c>
       <c r="I85" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -24097,7 +24116,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s">
         <v>378</v>
@@ -24106,7 +24125,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>491</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -24121,7 +24140,7 @@
         <v>384</v>
       </c>
       <c r="I86" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -24135,28 +24154,28 @@
         <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G87" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H87" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I87" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -24170,13 +24189,13 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -24191,7 +24210,7 @@
         <v>384</v>
       </c>
       <c r="I88" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -24205,28 +24224,28 @@
         <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H89" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I89" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -24240,28 +24259,28 @@
         <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I90" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -24275,28 +24294,28 @@
         <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H91" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I91" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -24307,31 +24326,31 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="H92" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I92" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -24342,31 +24361,31 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>706</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="G93" t="s">
         <v>425</v>
       </c>
       <c r="H93" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I93" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -24377,31 +24396,31 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>706</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H94" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I94" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -24412,31 +24431,31 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>706</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="H95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I95" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -24447,7 +24466,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
         <v>378</v>
@@ -24456,22 +24475,22 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>754</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G96" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H96" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I96" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -24482,7 +24501,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
         <v>378</v>
@@ -24491,7 +24510,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>754</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -24506,7 +24525,7 @@
         <v>383</v>
       </c>
       <c r="I97" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -24517,31 +24536,31 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
         <v>378</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I98" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -24552,31 +24571,31 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
         <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I99" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -24587,31 +24606,31 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
         <v>378</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H100" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I100" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -24622,31 +24641,31 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
         <v>378</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G101" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -24657,7 +24676,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
         <v>378</v>
@@ -24666,22 +24685,22 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G102" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I102" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -24692,7 +24711,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
         <v>378</v>
@@ -24701,22 +24720,22 @@
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G103" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I103" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -24727,7 +24746,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
         <v>378</v>
@@ -24736,22 +24755,22 @@
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G104" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I104" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -24762,7 +24781,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>378</v>
@@ -24771,22 +24790,22 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G105" t="s">
         <v>380</v>
       </c>
       <c r="H105" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I105" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -24797,7 +24816,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
         <v>378</v>
@@ -24806,22 +24825,22 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G106" t="s">
         <v>380</v>
       </c>
       <c r="H106" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I106" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -24832,7 +24851,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B107" t="s">
         <v>378</v>
@@ -24844,19 +24863,19 @@
         <v>10</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G107" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H107" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I107" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -24867,7 +24886,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
         <v>378</v>
@@ -24879,19 +24898,19 @@
         <v>170</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G108" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H108" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I108" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -24902,7 +24921,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
         <v>378</v>
@@ -24914,19 +24933,19 @@
         <v>11</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G109" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H109" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I109" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -24937,7 +24956,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
         <v>378</v>
@@ -24949,19 +24968,19 @@
         <v>12</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G110" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H110" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I110" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -24972,7 +24991,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
         <v>378</v>
@@ -24984,19 +25003,19 @@
         <v>13</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G111" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H111" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I111" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -25007,7 +25026,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
         <v>378</v>
@@ -25019,19 +25038,19 @@
         <v>14</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G112" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H112" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I112" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -25042,7 +25061,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
         <v>378</v>
@@ -25054,19 +25073,19 @@
         <v>171</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G113" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H113" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I113" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -25080,13 +25099,13 @@
         <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>469</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -25101,7 +25120,7 @@
         <v>386</v>
       </c>
       <c r="I114" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -25115,13 +25134,13 @@
         <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -25136,7 +25155,7 @@
         <v>384</v>
       </c>
       <c r="I115" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -25147,31 +25166,31 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
         <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="H116" t="s">
         <v>381</v>
       </c>
       <c r="I116" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -25182,31 +25201,31 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>470</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="G117" t="s">
         <v>425</v>
       </c>
       <c r="H117" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I117" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -25217,31 +25236,31 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>470</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G118" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H118" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I118" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -25252,31 +25271,31 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G119" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="H119" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I119" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -25287,31 +25306,31 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>170</v>
+        <v>471</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="G120" t="s">
         <v>425</v>
       </c>
       <c r="H120" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I120" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -25322,31 +25341,31 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G121" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H121" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I121" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -25357,31 +25376,31 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>471</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G122" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="H122" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I122" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -25392,31 +25411,31 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B123" t="s">
         <v>378</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>561</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G123" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H123" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I123" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -25427,31 +25446,31 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B124" t="s">
         <v>378</v>
       </c>
       <c r="C124" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G124" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H124" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I124" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -25462,31 +25481,31 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B125" t="s">
         <v>378</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G125" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H125" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I125" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -25497,31 +25516,31 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B126" t="s">
         <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H126" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I126" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -25532,31 +25551,31 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B127" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G127" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H127" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I127" t="s">
-        <v>396</v>
+        <v>711</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -25567,31 +25586,31 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B128" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H128" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I128" t="s">
-        <v>406</v>
+        <v>711</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -25602,37 +25621,37 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>385</v>
+        <v>92</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>754</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G129" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H129" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I129" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -25640,13 +25659,13 @@
         <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -25661,42 +25680,42 @@
         <v>386</v>
       </c>
       <c r="I130" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>385</v>
       </c>
       <c r="C131" t="s">
-        <v>3</v>
+        <v>832</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G131" t="s">
         <v>175</v>
       </c>
       <c r="H131" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I131" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -25707,31 +25726,31 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G132" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H132" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I132" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -25742,31 +25761,31 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B133" t="s">
         <v>378</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
         <v>27</v>
       </c>
       <c r="G133" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H133" t="s">
         <v>381</v>
       </c>
       <c r="I133" t="s">
-        <v>418</v>
+        <v>711</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -25777,31 +25796,31 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B134" t="s">
         <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>27</v>
       </c>
       <c r="G134" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H134" t="s">
         <v>381</v>
       </c>
       <c r="I134" t="s">
-        <v>419</v>
+        <v>711</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -25812,31 +25831,31 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B135" t="s">
         <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="s">
         <v>27</v>
       </c>
       <c r="G135" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H135" t="s">
         <v>381</v>
       </c>
       <c r="I135" t="s">
-        <v>418</v>
+        <v>711</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -25847,31 +25866,31 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B136" t="s">
         <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>176</v>
+        <v>561</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G136" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H136" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I136" t="s">
-        <v>418</v>
+        <v>708</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -25882,31 +25901,31 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B137" t="s">
         <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G137" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H137" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I137" t="s">
-        <v>420</v>
+        <v>708</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -25917,31 +25936,31 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B138" t="s">
         <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G138" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H138" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I138" t="s">
-        <v>412</v>
+        <v>708</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -25952,31 +25971,31 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B139" t="s">
         <v>378</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G139" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H139" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I139" t="s">
-        <v>413</v>
+        <v>708</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -25987,31 +26006,31 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B140" t="s">
         <v>378</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" t="s">
         <v>171</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G140" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H140" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I140" t="s">
-        <v>413</v>
+        <v>708</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -26022,31 +26041,31 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B141" t="s">
         <v>378</v>
       </c>
       <c r="C141" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G141" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H141" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I141" t="s">
-        <v>413</v>
+        <v>708</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -26057,31 +26076,31 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B142" t="s">
         <v>378</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G142" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H142" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I142" t="s">
-        <v>422</v>
+        <v>708</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -26092,31 +26111,31 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B143" t="s">
         <v>378</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G143" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H143" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I143" t="s">
-        <v>422</v>
+        <v>708</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -26127,31 +26146,31 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B144" t="s">
         <v>378</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G144" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H144" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I144" t="s">
-        <v>422</v>
+        <v>708</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -26162,7 +26181,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B145" t="s">
         <v>378</v>
@@ -26171,22 +26190,22 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>561</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G145" t="s">
         <v>175</v>
       </c>
       <c r="H145" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I145" t="s">
-        <v>424</v>
+        <v>709</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -26197,7 +26216,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B146" t="s">
         <v>378</v>
@@ -26206,22 +26225,22 @@
         <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G146" t="s">
         <v>175</v>
       </c>
       <c r="H146" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I146" t="s">
-        <v>422</v>
+        <v>710</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -26232,7 +26251,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B147" t="s">
         <v>378</v>
@@ -26241,22 +26260,22 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G147" t="s">
         <v>175</v>
       </c>
       <c r="H147" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I147" t="s">
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -26267,7 +26286,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B148" t="s">
         <v>378</v>
@@ -26276,22 +26295,22 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>171</v>
+        <v>562</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G148" t="s">
         <v>175</v>
       </c>
       <c r="H148" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I148" t="s">
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -26302,31 +26321,31 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C149" t="s">
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>469</v>
+        <v>171</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G149" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H149" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I149" t="s">
-        <v>473</v>
+        <v>710</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -26337,16 +26356,16 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>469</v>
+        <v>11</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -26361,7 +26380,7 @@
         <v>384</v>
       </c>
       <c r="I150" t="s">
-        <v>467</v>
+        <v>710</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -26372,31 +26391,31 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C151" t="s">
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>469</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G151" t="s">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="H151" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I151" t="s">
-        <v>474</v>
+        <v>710</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -26407,31 +26426,31 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C152" t="s">
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>470</v>
+        <v>10</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G152" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H152" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I152" t="s">
-        <v>473</v>
+        <v>710</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -26442,16 +26461,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>470</v>
+        <v>7</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -26466,7 +26485,7 @@
         <v>384</v>
       </c>
       <c r="I153" t="s">
-        <v>467</v>
+        <v>710</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -26477,16 +26496,16 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>470</v>
+        <v>561</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -26495,13 +26514,13 @@
         <v>27</v>
       </c>
       <c r="G154" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H154" t="s">
         <v>381</v>
       </c>
       <c r="I154" t="s">
-        <v>474</v>
+        <v>711</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -26512,31 +26531,31 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>471</v>
+        <v>170</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G155" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H155" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I155" t="s">
-        <v>473</v>
+        <v>711</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -26547,31 +26566,31 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C156" t="s">
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>471</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G156" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H156" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I156" t="s">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -26582,16 +26601,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C157" t="s">
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -26600,13 +26619,13 @@
         <v>27</v>
       </c>
       <c r="G157" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H157" t="s">
         <v>381</v>
       </c>
       <c r="I157" t="s">
-        <v>474</v>
+        <v>711</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -26617,31 +26636,31 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B158" t="s">
         <v>378</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>439</v>
+        <v>171</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G158" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H158" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I158" t="s">
-        <v>379</v>
+        <v>711</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -26661,7 +26680,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -26696,7 +26715,7 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -26731,7 +26750,7 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -26752,6 +26771,41 @@
         <v>0</v>
       </c>
       <c r="K161" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>559</v>
+      </c>
+      <c r="B162" t="s">
+        <v>378</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>380</v>
+      </c>
+      <c r="H162" t="s">
+        <v>381</v>
+      </c>
+      <c r="I162" t="s">
+        <v>711</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
         <v>379</v>
       </c>
     </row>
@@ -31301,7 +31355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0"/>
+    <sheetView topLeftCell="A213" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -39,14 +39,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Coaching_Reason_Selection!$A$1:$P$292</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DIM_Source!$A$1:$H$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Email_Notifications!$A$1:$K$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Email_Notifications!$A$1:$K$164</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="835">
   <si>
     <t>SourceID</t>
   </si>
@@ -2549,6 +2549,9 @@
   </si>
   <si>
     <t>Updated Email_Notification tab to add Email attributes for Quality Module and Outlier feed with Pending quality Lead Review status</t>
+  </si>
+  <si>
+    <t>Updated Email_Notification tab to add Email attributes for Supervisor Module and Outlier feed with Pending Manager Review status</t>
   </si>
 </sst>
 </file>
@@ -2913,9 +2916,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3822,6 +3825,23 @@
       </c>
       <c r="E53" t="s">
         <v>833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42850</v>
+      </c>
+      <c r="C54" t="s">
+        <v>432</v>
+      </c>
+      <c r="D54">
+        <v>6377</v>
+      </c>
+      <c r="E54" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -21120,9 +21140,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21176,7 +21198,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
         <v>378</v>
@@ -21185,22 +21207,22 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
-        <v>379</v>
+        <v>708</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -21211,7 +21233,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s">
         <v>378</v>
@@ -21220,22 +21242,22 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I3" t="s">
-        <v>391</v>
+        <v>708</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -21246,7 +21268,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s">
         <v>378</v>
@@ -21255,22 +21277,22 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>562</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I4" t="s">
-        <v>392</v>
+        <v>708</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -21281,7 +21303,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
         <v>378</v>
@@ -21290,22 +21312,22 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I5" t="s">
-        <v>393</v>
+        <v>708</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -21316,7 +21338,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
         <v>378</v>
@@ -21325,22 +21347,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I6" t="s">
-        <v>392</v>
+        <v>708</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -21351,7 +21373,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
@@ -21360,22 +21382,22 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I7" t="s">
-        <v>392</v>
+        <v>708</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -21386,7 +21408,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
@@ -21395,22 +21417,22 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G8" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I8" t="s">
-        <v>392</v>
+        <v>708</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -21421,7 +21443,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
@@ -21430,22 +21452,22 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I9" t="s">
-        <v>394</v>
+        <v>708</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -21456,31 +21478,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s">
         <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>561</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I10" t="s">
-        <v>392</v>
+        <v>709</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -21491,31 +21513,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
         <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I11" t="s">
-        <v>393</v>
+        <v>710</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21526,31 +21548,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s">
         <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>439</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="H12" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I12" t="s">
-        <v>379</v>
+        <v>710</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -21561,31 +21583,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B13" t="s">
         <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I13" t="s">
-        <v>379</v>
+        <v>710</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -21596,31 +21618,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B14" t="s">
         <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="H14" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I14" t="s">
-        <v>379</v>
+        <v>710</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -21640,22 +21662,22 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>561</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I15" t="s">
-        <v>379</v>
+        <v>711</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -21666,7 +21688,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>378</v>
@@ -21675,7 +21697,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -21690,7 +21712,7 @@
         <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>395</v>
+        <v>711</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -21701,7 +21723,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B17" t="s">
         <v>378</v>
@@ -21710,22 +21732,22 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I17" t="s">
-        <v>396</v>
+        <v>711</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -21736,7 +21758,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
         <v>378</v>
@@ -21745,22 +21767,22 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>562</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I18" t="s">
-        <v>397</v>
+        <v>711</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -21771,7 +21793,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
         <v>378</v>
@@ -21780,22 +21802,22 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I19" t="s">
-        <v>397</v>
+        <v>711</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -21806,7 +21828,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B20" t="s">
         <v>378</v>
@@ -21815,22 +21837,22 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I20" t="s">
-        <v>398</v>
+        <v>711</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -21841,7 +21863,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B21" t="s">
         <v>378</v>
@@ -21850,22 +21872,22 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I21" t="s">
-        <v>397</v>
+        <v>711</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -21876,7 +21898,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B22" t="s">
         <v>378</v>
@@ -21885,22 +21907,22 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I22" t="s">
-        <v>397</v>
+        <v>711</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -21911,7 +21933,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B23" t="s">
         <v>378</v>
@@ -21920,22 +21942,22 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I23" t="s">
-        <v>397</v>
+        <v>711</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -21946,7 +21968,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B24" t="s">
         <v>378</v>
@@ -21955,7 +21977,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>561</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -21970,7 +21992,7 @@
         <v>383</v>
       </c>
       <c r="I24" t="s">
-        <v>396</v>
+        <v>708</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -21981,31 +22003,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B25" t="s">
         <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I25" t="s">
-        <v>397</v>
+        <v>710</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -22016,31 +22038,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B26" t="s">
         <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I26" t="s">
-        <v>398</v>
+        <v>710</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -22051,31 +22073,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B27" t="s">
         <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I27" t="s">
-        <v>398</v>
+        <v>710</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -22086,7 +22108,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B28" t="s">
         <v>378</v>
@@ -22095,7 +22117,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -22110,7 +22132,7 @@
         <v>384</v>
       </c>
       <c r="I28" t="s">
-        <v>399</v>
+        <v>710</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -22121,31 +22143,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B29" t="s">
         <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>561</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
         <v>380</v>
       </c>
       <c r="H29" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I29" t="s">
-        <v>411</v>
+        <v>711</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -22156,31 +22178,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B30" t="s">
         <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
         <v>380</v>
       </c>
       <c r="H30" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I30" t="s">
-        <v>412</v>
+        <v>711</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -22191,31 +22213,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B31" t="s">
         <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
         <v>380</v>
       </c>
       <c r="H31" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I31" t="s">
-        <v>413</v>
+        <v>711</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -22226,31 +22248,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B32" t="s">
         <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>562</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
         <v>380</v>
       </c>
       <c r="H32" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I32" t="s">
-        <v>413</v>
+        <v>711</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -22261,31 +22283,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B33" t="s">
         <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
         <v>380</v>
       </c>
       <c r="H33" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I33" t="s">
-        <v>412</v>
+        <v>711</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -22296,31 +22318,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B34" t="s">
         <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I34" t="s">
-        <v>414</v>
+        <v>711</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -22331,7 +22353,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B35" t="s">
         <v>378</v>
@@ -22340,22 +22362,22 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="H35" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I35" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -22369,28 +22391,28 @@
         <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H36" t="s">
-        <v>383</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -22401,31 +22423,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>706</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
         <v>425</v>
       </c>
       <c r="H37" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I37" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -22436,31 +22458,31 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>706</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
         <v>175</v>
       </c>
-      <c r="B38" t="s">
-        <v>378</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" t="s">
-        <v>425</v>
-      </c>
       <c r="H38" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I38" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -22471,31 +22493,31 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>706</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="H39" t="s">
         <v>381</v>
       </c>
       <c r="I39" t="s">
-        <v>417</v>
+        <v>711</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -22506,31 +22528,31 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B40" t="s">
         <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H40" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -22541,31 +22563,31 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
         <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>754</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H41" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I41" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -22576,31 +22598,31 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
         <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>754</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I42" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -22611,37 +22633,37 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>754</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
         <v>175</v>
-      </c>
-      <c r="H43" t="s">
-        <v>384</v>
-      </c>
-      <c r="I43" t="s">
-        <v>399</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -22649,63 +22671,63 @@
         <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
+        <v>425</v>
+      </c>
+      <c r="H44" t="s">
+        <v>386</v>
+      </c>
+      <c r="I44" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
         <v>175</v>
-      </c>
-      <c r="H44" t="s">
-        <v>384</v>
-      </c>
-      <c r="I44" t="s">
-        <v>399</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G45" t="s">
         <v>175</v>
       </c>
       <c r="H45" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -22716,31 +22738,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>832</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G46" t="s">
         <v>175</v>
       </c>
       <c r="H46" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I46" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -22757,25 +22779,25 @@
         <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H47" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -22792,25 +22814,25 @@
         <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H48" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -22827,25 +22849,25 @@
         <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H49" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I49" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -22862,10 +22884,10 @@
         <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -22880,7 +22902,7 @@
         <v>381</v>
       </c>
       <c r="I50" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -22897,10 +22919,10 @@
         <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -22915,7 +22937,7 @@
         <v>381</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -22926,7 +22948,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
         <v>378</v>
@@ -22935,22 +22957,22 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G52" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H52" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -22961,7 +22983,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
         <v>378</v>
@@ -22970,22 +22992,22 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G53" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I53" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -22996,7 +23018,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>378</v>
@@ -23005,22 +23027,22 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H54" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I54" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -23031,7 +23053,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
         <v>378</v>
@@ -23040,22 +23062,22 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H55" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I55" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -23066,7 +23088,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
         <v>378</v>
@@ -23075,22 +23097,22 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H56" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I56" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -23101,7 +23123,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>378</v>
@@ -23110,22 +23132,22 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>439</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="H57" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I57" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -23145,22 +23167,22 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="H58" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -23171,7 +23193,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
         <v>378</v>
@@ -23180,22 +23202,22 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H59" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I59" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -23206,7 +23228,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>378</v>
@@ -23215,10 +23237,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>177</v>
@@ -23227,10 +23249,10 @@
         <v>425</v>
       </c>
       <c r="H60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I60" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -23241,7 +23263,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>378</v>
@@ -23250,7 +23272,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -23265,7 +23287,7 @@
         <v>383</v>
       </c>
       <c r="I61" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -23276,31 +23298,31 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
         <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H62" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I62" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -23311,31 +23333,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H63" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -23346,31 +23368,31 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
         <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G64" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H64" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I64" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -23387,25 +23409,25 @@
         <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G65" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H65" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I65" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -23422,25 +23444,25 @@
         <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G66" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H66" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I66" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -23457,25 +23479,25 @@
         <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G67" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H67" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I67" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -23492,25 +23514,25 @@
         <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G68" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H68" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I68" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -23527,25 +23549,25 @@
         <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G69" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H69" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I69" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -23562,25 +23584,25 @@
         <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G70" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H70" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I70" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -23600,22 +23622,22 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H71" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I71" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -23626,31 +23648,31 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
         <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G72" t="s">
         <v>380</v>
       </c>
       <c r="H72" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I72" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -23661,31 +23683,31 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
         <v>378</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G73" t="s">
         <v>380</v>
       </c>
       <c r="H73" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I73" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -23696,31 +23718,31 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="G74" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H74" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I74" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -23731,31 +23753,31 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="G75" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H75" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I75" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -23769,28 +23791,28 @@
         <v>175</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H76" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I76" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -23801,7 +23823,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
         <v>378</v>
@@ -23810,7 +23832,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -23825,7 +23847,7 @@
         <v>383</v>
       </c>
       <c r="I77" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -23836,7 +23858,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
         <v>378</v>
@@ -23845,7 +23867,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -23860,7 +23882,7 @@
         <v>383</v>
       </c>
       <c r="I78" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -23871,7 +23893,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
         <v>378</v>
@@ -23880,7 +23902,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>489</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -23895,7 +23917,7 @@
         <v>383</v>
       </c>
       <c r="I79" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -23906,7 +23928,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B80" t="s">
         <v>378</v>
@@ -23915,7 +23937,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -23930,7 +23952,7 @@
         <v>383</v>
       </c>
       <c r="I80" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -23941,7 +23963,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B81" t="s">
         <v>378</v>
@@ -23950,7 +23972,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>491</v>
+        <v>176</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -23965,7 +23987,7 @@
         <v>383</v>
       </c>
       <c r="I81" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -23976,7 +23998,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
         <v>378</v>
@@ -23985,22 +24007,22 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G82" t="s">
         <v>175</v>
       </c>
       <c r="H82" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I82" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -24011,7 +24033,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
         <v>378</v>
@@ -24020,7 +24042,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -24035,7 +24057,7 @@
         <v>384</v>
       </c>
       <c r="I83" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -24046,7 +24068,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
         <v>378</v>
@@ -24055,7 +24077,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>489</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -24070,7 +24092,7 @@
         <v>384</v>
       </c>
       <c r="I84" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -24081,7 +24103,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
         <v>378</v>
@@ -24090,7 +24112,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -24105,7 +24127,7 @@
         <v>384</v>
       </c>
       <c r="I85" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -24116,7 +24138,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
         <v>378</v>
@@ -24125,7 +24147,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>491</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -24140,7 +24162,7 @@
         <v>384</v>
       </c>
       <c r="I86" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -24154,28 +24176,28 @@
         <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H87" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I87" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -24189,13 +24211,13 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -24210,7 +24232,7 @@
         <v>384</v>
       </c>
       <c r="I88" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -24224,28 +24246,28 @@
         <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H89" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I89" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -24259,28 +24281,28 @@
         <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G90" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H90" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I90" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -24294,13 +24316,13 @@
         <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -24315,7 +24337,7 @@
         <v>384</v>
       </c>
       <c r="I91" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -24329,28 +24351,28 @@
         <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="H92" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I92" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -24364,28 +24386,28 @@
         <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>706</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H93" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I93" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -24399,28 +24421,28 @@
         <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>706</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H94" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I94" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -24431,31 +24453,31 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>706</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G95" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="H95" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I95" t="s">
-        <v>474</v>
+        <v>398</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -24466,7 +24488,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>378</v>
@@ -24475,22 +24497,22 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>754</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G96" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H96" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I96" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -24501,7 +24523,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
         <v>378</v>
@@ -24510,7 +24532,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>754</v>
+        <v>9</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -24525,7 +24547,7 @@
         <v>383</v>
       </c>
       <c r="I97" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -24536,31 +24558,31 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
         <v>378</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H98" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I98" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -24571,31 +24593,31 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
         <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G99" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H99" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I99" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -24606,31 +24628,31 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
         <v>378</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G100" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H100" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I100" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -24641,31 +24663,31 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
         <v>378</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G101" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H101" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I101" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -24676,31 +24698,31 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
         <v>378</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G102" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H102" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I102" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -24711,31 +24733,31 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
         <v>378</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G103" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H103" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I103" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -24746,31 +24768,31 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
         <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G104" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H104" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I104" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -24781,7 +24803,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
         <v>378</v>
@@ -24790,22 +24812,22 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G105" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H105" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I105" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -24816,7 +24838,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
         <v>378</v>
@@ -24825,22 +24847,22 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G106" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I106" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -24860,7 +24882,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -24875,7 +24897,7 @@
         <v>390</v>
       </c>
       <c r="I107" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -24886,7 +24908,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>378</v>
@@ -24895,22 +24917,22 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H108" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I108" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -24921,7 +24943,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
         <v>378</v>
@@ -24930,22 +24952,22 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G109" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H109" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I109" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -24956,7 +24978,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
         <v>378</v>
@@ -24965,22 +24987,22 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H110" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I110" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -24991,7 +25013,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
         <v>378</v>
@@ -25000,22 +25022,22 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G111" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H111" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I111" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -25026,7 +25048,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
         <v>378</v>
@@ -25035,22 +25057,22 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H112" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I112" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -25061,7 +25083,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
         <v>378</v>
@@ -25070,22 +25092,22 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G113" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H113" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I113" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -25099,28 +25121,28 @@
         <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>469</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G114" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H114" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I114" t="s">
-        <v>473</v>
+        <v>403</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -25134,28 +25156,28 @@
         <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>469</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G115" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H115" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I115" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -25169,13 +25191,13 @@
         <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>469</v>
+        <v>171</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -25184,13 +25206,13 @@
         <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H116" t="s">
         <v>381</v>
       </c>
       <c r="I116" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -25204,13 +25226,13 @@
         <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>385</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>470</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -25225,7 +25247,7 @@
         <v>386</v>
       </c>
       <c r="I117" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -25239,13 +25261,13 @@
         <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>470</v>
+        <v>172</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -25260,7 +25282,7 @@
         <v>384</v>
       </c>
       <c r="I118" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -25271,31 +25293,31 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>470</v>
+        <v>172</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
         <v>27</v>
       </c>
       <c r="G119" t="s">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="H119" t="s">
         <v>381</v>
       </c>
       <c r="I119" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -25306,31 +25328,31 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>471</v>
+        <v>8</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="G120" t="s">
         <v>425</v>
       </c>
       <c r="H120" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I120" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -25341,31 +25363,31 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G121" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H121" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I121" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -25376,31 +25398,31 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G122" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="H122" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I122" t="s">
-        <v>474</v>
+        <v>398</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -25411,7 +25433,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B123" t="s">
         <v>378</v>
@@ -25420,22 +25442,22 @@
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>561</v>
+        <v>170</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G123" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H123" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I123" t="s">
-        <v>711</v>
+        <v>398</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -25446,7 +25468,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B124" t="s">
         <v>378</v>
@@ -25455,22 +25477,22 @@
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>170</v>
+        <v>491</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G124" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H124" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I124" t="s">
-        <v>711</v>
+        <v>398</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -25481,31 +25503,31 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B125" t="s">
         <v>378</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G125" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H125" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I125" t="s">
-        <v>711</v>
+        <v>422</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -25516,31 +25538,31 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B126" t="s">
         <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G126" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H126" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I126" t="s">
-        <v>711</v>
+        <v>422</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -25551,31 +25573,31 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B127" t="s">
         <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>171</v>
+        <v>489</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H127" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I127" t="s">
-        <v>711</v>
+        <v>422</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -25586,31 +25608,31 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B128" t="s">
         <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G128" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H128" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I128" t="s">
-        <v>711</v>
+        <v>422</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -25621,37 +25643,37 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B129" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>754</v>
+        <v>491</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G129" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H129" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I129" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -25659,45 +25681,45 @@
         <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>92</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="G130" t="s">
         <v>425</v>
       </c>
       <c r="H130" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I130" t="s">
-        <v>473</v>
+        <v>396</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
         <v>385</v>
       </c>
       <c r="C131" t="s">
-        <v>832</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -25706,16 +25728,16 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G131" t="s">
         <v>175</v>
       </c>
       <c r="H131" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I131" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -25726,31 +25748,31 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G132" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H132" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I132" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -25761,31 +25783,31 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G133" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H133" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I133" t="s">
-        <v>711</v>
+        <v>408</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -25796,31 +25818,31 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G134" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H134" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I134" t="s">
-        <v>711</v>
+        <v>409</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -25831,16 +25853,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -25849,13 +25871,13 @@
         <v>27</v>
       </c>
       <c r="G135" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H135" t="s">
         <v>381</v>
       </c>
       <c r="I135" t="s">
-        <v>711</v>
+        <v>410</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -25866,31 +25888,31 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B136" t="s">
         <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D136" t="s">
-        <v>561</v>
+        <v>13</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G136" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H136" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I136" t="s">
-        <v>708</v>
+        <v>418</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -25901,31 +25923,31 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B137" t="s">
         <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G137" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H137" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I137" t="s">
-        <v>708</v>
+        <v>419</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -25936,31 +25958,31 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B138" t="s">
         <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G138" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I138" t="s">
-        <v>708</v>
+        <v>418</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -25971,31 +25993,31 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B139" t="s">
         <v>378</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>562</v>
+        <v>176</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G139" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H139" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I139" t="s">
-        <v>708</v>
+        <v>418</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -26006,31 +26028,31 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B140" t="s">
         <v>378</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D140" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G140" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H140" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I140" t="s">
-        <v>708</v>
+        <v>420</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -26041,31 +26063,31 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B141" t="s">
         <v>378</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G141" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H141" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I141" t="s">
-        <v>708</v>
+        <v>412</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -26076,31 +26098,31 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B142" t="s">
         <v>378</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G142" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H142" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I142" t="s">
-        <v>708</v>
+        <v>413</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -26111,31 +26133,31 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B143" t="s">
         <v>378</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G143" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H143" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I143" t="s">
-        <v>708</v>
+        <v>413</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -26146,31 +26168,31 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
         <v>378</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G144" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H144" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I144" t="s">
-        <v>708</v>
+        <v>413</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -26181,7 +26203,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B145" t="s">
         <v>378</v>
@@ -26190,22 +26212,22 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G145" t="s">
         <v>175</v>
       </c>
       <c r="H145" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I145" t="s">
-        <v>709</v>
+        <v>422</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -26216,7 +26238,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B146" t="s">
         <v>378</v>
@@ -26231,16 +26253,16 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G146" t="s">
         <v>175</v>
       </c>
       <c r="H146" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I146" t="s">
-        <v>710</v>
+        <v>422</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -26251,7 +26273,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B147" t="s">
         <v>378</v>
@@ -26260,22 +26282,22 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G147" t="s">
         <v>175</v>
       </c>
       <c r="H147" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I147" t="s">
-        <v>710</v>
+        <v>422</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -26286,7 +26308,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B148" t="s">
         <v>378</v>
@@ -26295,22 +26317,22 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G148" t="s">
         <v>175</v>
       </c>
       <c r="H148" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I148" t="s">
-        <v>710</v>
+        <v>424</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -26321,7 +26343,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B149" t="s">
         <v>378</v>
@@ -26330,22 +26352,22 @@
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G149" t="s">
         <v>175</v>
       </c>
       <c r="H149" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I149" t="s">
-        <v>710</v>
+        <v>422</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -26356,7 +26378,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B150" t="s">
         <v>378</v>
@@ -26365,22 +26387,22 @@
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G150" t="s">
         <v>175</v>
       </c>
       <c r="H150" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I150" t="s">
-        <v>710</v>
+        <v>423</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -26391,7 +26413,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B151" t="s">
         <v>378</v>
@@ -26400,22 +26422,22 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G151" t="s">
         <v>175</v>
       </c>
       <c r="H151" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I151" t="s">
-        <v>710</v>
+        <v>423</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -26426,31 +26448,31 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>469</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G152" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H152" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I152" t="s">
-        <v>710</v>
+        <v>473</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -26461,16 +26483,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B153" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -26485,7 +26507,7 @@
         <v>384</v>
       </c>
       <c r="I153" t="s">
-        <v>710</v>
+        <v>467</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -26496,16 +26518,16 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B154" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>561</v>
+        <v>469</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -26514,13 +26536,13 @@
         <v>27</v>
       </c>
       <c r="G154" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H154" t="s">
         <v>381</v>
       </c>
       <c r="I154" t="s">
-        <v>711</v>
+        <v>474</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -26531,31 +26553,31 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B155" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G155" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H155" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I155" t="s">
-        <v>711</v>
+        <v>473</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -26566,31 +26588,31 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B156" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>470</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G156" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H156" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I156" t="s">
-        <v>711</v>
+        <v>467</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -26601,16 +26623,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>562</v>
+        <v>470</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -26619,13 +26641,13 @@
         <v>27</v>
       </c>
       <c r="G157" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H157" t="s">
         <v>381</v>
       </c>
       <c r="I157" t="s">
-        <v>711</v>
+        <v>474</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -26636,31 +26658,31 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B158" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>171</v>
+        <v>471</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H158" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I158" t="s">
-        <v>711</v>
+        <v>473</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -26671,31 +26693,31 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>471</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H159" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I159" t="s">
-        <v>711</v>
+        <v>467</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -26706,16 +26728,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B160" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>471</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -26724,13 +26746,13 @@
         <v>27</v>
       </c>
       <c r="G160" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H160" t="s">
         <v>381</v>
       </c>
       <c r="I160" t="s">
-        <v>711</v>
+        <v>474</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -26741,31 +26763,31 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>378</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>439</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H161" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I161" t="s">
-        <v>711</v>
+        <v>379</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -26785,7 +26807,7 @@
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -26806,6 +26828,76 @@
         <v>0</v>
       </c>
       <c r="K162" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>559</v>
+      </c>
+      <c r="B163" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" t="s">
+        <v>380</v>
+      </c>
+      <c r="H163" t="s">
+        <v>381</v>
+      </c>
+      <c r="I163" t="s">
+        <v>711</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>559</v>
+      </c>
+      <c r="B164" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s">
+        <v>380</v>
+      </c>
+      <c r="H164" t="s">
+        <v>381</v>
+      </c>
+      <c r="I164" t="s">
+        <v>711</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" t="s">
         <v>379</v>
       </c>
     </row>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -39,14 +39,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Coaching_Reason_Selection!$A$1:$P$292</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DIM_Source!$A$1:$H$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Email_Notifications!$A$1:$K$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Email_Notifications!$A$1:$K$163</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="836">
   <si>
     <t>SourceID</t>
   </si>
@@ -2552,6 +2552,9 @@
   </si>
   <si>
     <t>Updated Email_Notification tab to add Email attributes for Supervisor Module and Outlier feed with Pending Manager Review status</t>
+  </si>
+  <si>
+    <t>Updated Email_Notifications tab to update Email attributes for CSR Module Direct UI submission for Quality Specialist Coaching source</t>
   </si>
 </sst>
 </file>
@@ -2916,7 +2919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3842,6 +3845,23 @@
       </c>
       <c r="E54" t="s">
         <v>834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1">
+        <v>42863</v>
+      </c>
+      <c r="C55" t="s">
+        <v>432</v>
+      </c>
+      <c r="D55">
+        <v>6882</v>
+      </c>
+      <c r="E55" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -21140,11 +21160,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21198,7 +21216,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>378</v>
@@ -21207,7 +21225,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -21222,7 +21240,7 @@
         <v>383</v>
       </c>
       <c r="I2" t="s">
-        <v>708</v>
+        <v>397</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -21233,7 +21251,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>378</v>
@@ -21242,22 +21260,22 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I3" t="s">
-        <v>708</v>
+        <v>391</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -21268,7 +21286,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>378</v>
@@ -21277,22 +21295,22 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I4" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -21303,7 +21321,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>378</v>
@@ -21312,22 +21330,22 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I5" t="s">
-        <v>708</v>
+        <v>393</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -21338,7 +21356,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>378</v>
@@ -21347,22 +21365,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I6" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -21373,7 +21391,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
@@ -21382,22 +21400,22 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I7" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -21408,7 +21426,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
@@ -21417,22 +21435,22 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I8" t="s">
-        <v>708</v>
+        <v>392</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -21443,7 +21461,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
@@ -21452,22 +21470,22 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>708</v>
+        <v>394</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -21478,31 +21496,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I10" t="s">
-        <v>709</v>
+        <v>392</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -21513,31 +21531,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I11" t="s">
-        <v>710</v>
+        <v>393</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -21548,31 +21566,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I12" t="s">
-        <v>710</v>
+        <v>379</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -21583,31 +21601,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>562</v>
+        <v>439</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I13" t="s">
-        <v>710</v>
+        <v>379</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -21618,31 +21636,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I14" t="s">
-        <v>710</v>
+        <v>379</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -21662,22 +21680,22 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>561</v>
+        <v>439</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I15" t="s">
-        <v>711</v>
+        <v>379</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -21688,7 +21706,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
         <v>378</v>
@@ -21697,7 +21715,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -21712,7 +21730,7 @@
         <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>711</v>
+        <v>395</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -21723,7 +21741,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>378</v>
@@ -21732,22 +21750,22 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I17" t="s">
-        <v>711</v>
+        <v>396</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -21758,7 +21776,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>378</v>
@@ -21767,22 +21785,22 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>562</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I18" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -21793,7 +21811,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>378</v>
@@ -21802,22 +21820,22 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H19" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I19" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -21828,7 +21846,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
         <v>378</v>
@@ -21837,22 +21855,22 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I20" t="s">
-        <v>711</v>
+        <v>398</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -21863,7 +21881,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>378</v>
@@ -21872,22 +21890,22 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I21" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -21898,7 +21916,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>378</v>
@@ -21907,22 +21925,22 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H22" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I22" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -21933,7 +21951,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>378</v>
@@ -21942,22 +21960,22 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I23" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -21968,7 +21986,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
         <v>378</v>
@@ -21977,7 +21995,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -21992,7 +22010,7 @@
         <v>383</v>
       </c>
       <c r="I24" t="s">
-        <v>708</v>
+        <v>396</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -22003,31 +22021,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I25" t="s">
-        <v>710</v>
+        <v>397</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -22038,31 +22056,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
         <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I26" t="s">
-        <v>710</v>
+        <v>398</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -22073,31 +22091,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I27" t="s">
-        <v>710</v>
+        <v>398</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -22108,7 +22126,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>378</v>
@@ -22117,7 +22135,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -22132,7 +22150,7 @@
         <v>384</v>
       </c>
       <c r="I28" t="s">
-        <v>710</v>
+        <v>399</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -22143,31 +22161,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
         <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
         <v>380</v>
       </c>
       <c r="H29" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I29" t="s">
-        <v>711</v>
+        <v>411</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -22178,31 +22196,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
         <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
         <v>380</v>
       </c>
       <c r="H30" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I30" t="s">
-        <v>711</v>
+        <v>412</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -22213,31 +22231,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
         <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
         <v>380</v>
       </c>
       <c r="H31" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I31" t="s">
-        <v>711</v>
+        <v>413</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -22248,31 +22266,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
         <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>562</v>
+        <v>171</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G32" t="s">
         <v>380</v>
       </c>
       <c r="H32" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I32" t="s">
-        <v>711</v>
+        <v>413</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -22283,31 +22301,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
         <v>380</v>
       </c>
       <c r="H33" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I33" t="s">
-        <v>711</v>
+        <v>412</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -22318,31 +22336,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
         <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H34" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I34" t="s">
-        <v>711</v>
+        <v>414</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -22353,7 +22371,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
         <v>378</v>
@@ -22362,22 +22380,22 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G35" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H35" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I35" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -22391,28 +22409,28 @@
         <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="I36" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -22423,31 +22441,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>706</v>
+        <v>171</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="G37" t="s">
         <v>425</v>
       </c>
       <c r="H37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I37" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -22458,31 +22476,31 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>706</v>
+        <v>176</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I38" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -22493,31 +22511,31 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>706</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="H39" t="s">
         <v>381</v>
       </c>
       <c r="I39" t="s">
-        <v>711</v>
+        <v>417</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -22528,31 +22546,31 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>439</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I40" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -22563,31 +22581,31 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>754</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H41" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I41" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -22598,31 +22616,31 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
         <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>754</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H42" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I42" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -22633,37 +22651,37 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>754</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I43" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -22671,63 +22689,63 @@
         <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I44" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
         <v>175</v>
       </c>
       <c r="H45" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I45" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -22738,31 +22756,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>832</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
         <v>175</v>
       </c>
       <c r="H46" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I46" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -22779,25 +22797,25 @@
         <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="H47" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -22814,25 +22832,25 @@
         <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H48" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -22849,25 +22867,25 @@
         <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H49" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -22884,10 +22902,10 @@
         <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -22902,7 +22920,7 @@
         <v>381</v>
       </c>
       <c r="I50" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -22919,10 +22937,10 @@
         <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -22937,7 +22955,7 @@
         <v>381</v>
       </c>
       <c r="I51" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -22948,7 +22966,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>378</v>
@@ -22957,22 +22975,22 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I52" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -22983,7 +23001,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>378</v>
@@ -22992,22 +23010,22 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G53" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H53" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I53" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -23018,7 +23036,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
         <v>378</v>
@@ -23027,22 +23045,22 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G54" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H54" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I54" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -23053,7 +23071,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>378</v>
@@ -23062,22 +23080,22 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H55" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I55" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -23088,7 +23106,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
         <v>378</v>
@@ -23097,22 +23115,22 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G56" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H56" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I56" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -23123,7 +23141,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
         <v>378</v>
@@ -23132,22 +23150,22 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G57" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H57" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I57" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -23167,22 +23185,22 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H58" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I58" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -23193,7 +23211,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>378</v>
@@ -23202,22 +23220,22 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H59" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I59" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -23228,7 +23246,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
         <v>378</v>
@@ -23237,10 +23255,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>177</v>
@@ -23249,10 +23267,10 @@
         <v>425</v>
       </c>
       <c r="H60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I60" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -23263,7 +23281,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
         <v>378</v>
@@ -23272,7 +23290,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -23287,7 +23305,7 @@
         <v>383</v>
       </c>
       <c r="I61" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -23298,31 +23316,31 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
         <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G62" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H62" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="I62" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -23333,31 +23351,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
         <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H63" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="I63" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -23368,31 +23386,31 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
         <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G64" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H64" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="I64" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -23409,25 +23427,25 @@
         <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H65" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I65" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -23444,25 +23462,25 @@
         <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H66" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I66" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -23479,25 +23497,25 @@
         <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H67" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I67" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -23514,25 +23532,25 @@
         <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H68" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I68" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -23549,25 +23567,25 @@
         <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H69" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I69" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -23584,25 +23602,25 @@
         <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I70" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -23622,22 +23640,22 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I71" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -23648,31 +23666,31 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
         <v>380</v>
       </c>
       <c r="H72" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I72" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -23683,31 +23701,31 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
         <v>378</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
         <v>380</v>
       </c>
       <c r="H73" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I73" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -23718,31 +23736,31 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="G74" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H74" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I74" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -23753,31 +23771,31 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
         <v>175</v>
       </c>
-      <c r="B75" t="s">
-        <v>378</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>178</v>
-      </c>
-      <c r="G75" t="s">
-        <v>380</v>
-      </c>
       <c r="H75" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I75" t="s">
-        <v>413</v>
+        <v>501</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -23791,28 +23809,28 @@
         <v>175</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H76" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I76" t="s">
-        <v>412</v>
+        <v>502</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -23823,7 +23841,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s">
         <v>378</v>
@@ -23832,7 +23850,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -23847,7 +23865,7 @@
         <v>383</v>
       </c>
       <c r="I77" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -23858,7 +23876,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s">
         <v>378</v>
@@ -23867,7 +23885,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -23882,7 +23900,7 @@
         <v>383</v>
       </c>
       <c r="I78" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -23893,7 +23911,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s">
         <v>378</v>
@@ -23902,7 +23920,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>489</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -23917,7 +23935,7 @@
         <v>383</v>
       </c>
       <c r="I79" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -23928,7 +23946,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s">
         <v>378</v>
@@ -23937,7 +23955,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -23952,7 +23970,7 @@
         <v>383</v>
       </c>
       <c r="I80" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -23963,7 +23981,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s">
         <v>378</v>
@@ -23972,7 +23990,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>491</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -23987,7 +24005,7 @@
         <v>383</v>
       </c>
       <c r="I81" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -23998,7 +24016,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s">
         <v>378</v>
@@ -24007,22 +24025,22 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G82" t="s">
         <v>175</v>
       </c>
       <c r="H82" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I82" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -24033,7 +24051,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B83" t="s">
         <v>378</v>
@@ -24042,7 +24060,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -24057,7 +24075,7 @@
         <v>384</v>
       </c>
       <c r="I83" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -24068,7 +24086,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
         <v>378</v>
@@ -24077,7 +24095,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>489</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -24092,7 +24110,7 @@
         <v>384</v>
       </c>
       <c r="I84" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -24103,7 +24121,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s">
         <v>378</v>
@@ -24112,7 +24130,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -24127,7 +24145,7 @@
         <v>384</v>
       </c>
       <c r="I85" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -24138,7 +24156,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s">
         <v>378</v>
@@ -24147,7 +24165,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>491</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -24162,7 +24180,7 @@
         <v>384</v>
       </c>
       <c r="I86" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -24176,28 +24194,28 @@
         <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G87" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H87" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I87" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -24211,13 +24229,13 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -24232,7 +24250,7 @@
         <v>384</v>
       </c>
       <c r="I88" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -24246,28 +24264,28 @@
         <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H89" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I89" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -24281,28 +24299,28 @@
         <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I90" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -24316,13 +24334,13 @@
         <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -24337,7 +24355,7 @@
         <v>384</v>
       </c>
       <c r="I91" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -24351,28 +24369,28 @@
         <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="H92" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I92" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -24386,28 +24404,28 @@
         <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>706</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G93" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H93" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I93" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -24421,28 +24439,28 @@
         <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>706</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H94" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I94" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -24453,31 +24471,31 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>706</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="H95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I95" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -24488,7 +24506,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
         <v>378</v>
@@ -24497,22 +24515,22 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>754</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G96" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H96" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I96" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -24523,7 +24541,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
         <v>378</v>
@@ -24532,7 +24550,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>754</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -24547,7 +24565,7 @@
         <v>383</v>
       </c>
       <c r="I97" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -24558,31 +24576,31 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
         <v>378</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I98" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -24593,31 +24611,31 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
         <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I99" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -24628,31 +24646,31 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
         <v>378</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H100" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I100" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -24663,31 +24681,31 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
         <v>378</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G101" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I101" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -24698,31 +24716,31 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
         <v>378</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G102" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H102" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I102" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -24733,31 +24751,31 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
         <v>378</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G103" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H103" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I103" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -24768,31 +24786,31 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
         <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G104" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H104" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I104" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -24803,7 +24821,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>378</v>
@@ -24812,22 +24830,22 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G105" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H105" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I105" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -24838,7 +24856,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
         <v>378</v>
@@ -24847,22 +24865,22 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G106" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I106" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -24882,7 +24900,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -24897,7 +24915,7 @@
         <v>390</v>
       </c>
       <c r="I107" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -24908,7 +24926,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
         <v>378</v>
@@ -24917,22 +24935,22 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G108" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H108" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I108" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -24943,7 +24961,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
         <v>378</v>
@@ -24952,22 +24970,22 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G109" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H109" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I109" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -24978,7 +24996,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
         <v>378</v>
@@ -24987,22 +25005,22 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G110" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H110" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I110" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -25013,7 +25031,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
         <v>378</v>
@@ -25022,22 +25040,22 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G111" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H111" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I111" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -25048,7 +25066,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
         <v>378</v>
@@ -25057,22 +25075,22 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G112" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H112" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I112" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -25083,7 +25101,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
         <v>378</v>
@@ -25092,22 +25110,22 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G113" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H113" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I113" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -25121,28 +25139,28 @@
         <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>469</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G114" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H114" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I114" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -25156,28 +25174,28 @@
         <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>469</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G115" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H115" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I115" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -25191,13 +25209,13 @@
         <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>469</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -25206,13 +25224,13 @@
         <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H116" t="s">
         <v>381</v>
       </c>
       <c r="I116" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -25226,13 +25244,13 @@
         <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>470</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -25247,7 +25265,7 @@
         <v>386</v>
       </c>
       <c r="I117" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -25261,13 +25279,13 @@
         <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>470</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -25282,7 +25300,7 @@
         <v>384</v>
       </c>
       <c r="I118" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -25293,31 +25311,31 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>172</v>
+        <v>470</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="s">
         <v>27</v>
       </c>
       <c r="G119" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="H119" t="s">
         <v>381</v>
       </c>
       <c r="I119" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -25328,31 +25346,31 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>471</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="G120" t="s">
         <v>425</v>
       </c>
       <c r="H120" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I120" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -25363,31 +25381,31 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="G121" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H121" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I121" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -25398,31 +25416,31 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G122" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="H122" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I122" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -25433,7 +25451,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B123" t="s">
         <v>378</v>
@@ -25442,22 +25460,22 @@
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>561</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G123" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H123" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I123" t="s">
-        <v>398</v>
+        <v>711</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -25468,7 +25486,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B124" t="s">
         <v>378</v>
@@ -25477,22 +25495,22 @@
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>491</v>
+        <v>170</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G124" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H124" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I124" t="s">
-        <v>398</v>
+        <v>711</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -25503,31 +25521,31 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B125" t="s">
         <v>378</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G125" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H125" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I125" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -25538,31 +25556,31 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B126" t="s">
         <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H126" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I126" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -25573,31 +25591,31 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B127" t="s">
         <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>489</v>
+        <v>171</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G127" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H127" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I127" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -25608,31 +25626,31 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B128" t="s">
         <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H128" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I128" t="s">
-        <v>422</v>
+        <v>711</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -25643,37 +25661,37 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>491</v>
+        <v>754</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G129" t="s">
+        <v>425</v>
+      </c>
+      <c r="H129" t="s">
+        <v>386</v>
+      </c>
+      <c r="I129" t="s">
+        <v>473</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" t="s">
         <v>175</v>
-      </c>
-      <c r="H129" t="s">
-        <v>384</v>
-      </c>
-      <c r="I129" t="s">
-        <v>422</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -25681,45 +25699,45 @@
         <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>92</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="G130" t="s">
         <v>425</v>
       </c>
       <c r="H130" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I130" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B131" t="s">
         <v>385</v>
       </c>
       <c r="C131" t="s">
-        <v>3</v>
+        <v>832</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -25728,16 +25746,16 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G131" t="s">
         <v>175</v>
       </c>
       <c r="H131" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I131" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -25748,7 +25766,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
         <v>385</v>
@@ -25766,13 +25784,13 @@
         <v>27</v>
       </c>
       <c r="G132" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H132" t="s">
-        <v>381</v>
+        <v>27</v>
       </c>
       <c r="I132" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -25783,31 +25801,31 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G133" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="H133" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I133" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -25818,31 +25836,31 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G134" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H134" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I134" t="s">
-        <v>409</v>
+        <v>711</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -25853,16 +25871,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -25871,13 +25889,13 @@
         <v>27</v>
       </c>
       <c r="G135" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H135" t="s">
         <v>381</v>
       </c>
       <c r="I135" t="s">
-        <v>410</v>
+        <v>711</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -25888,31 +25906,31 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B136" t="s">
         <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
         <v>27</v>
       </c>
       <c r="G136" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H136" t="s">
         <v>381</v>
       </c>
       <c r="I136" t="s">
-        <v>418</v>
+        <v>711</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -25923,31 +25941,31 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B137" t="s">
         <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>561</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G137" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H137" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I137" t="s">
-        <v>419</v>
+        <v>708</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -25958,31 +25976,31 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B138" t="s">
         <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G138" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H138" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I138" t="s">
-        <v>418</v>
+        <v>708</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -25993,31 +26011,31 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B139" t="s">
         <v>378</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="G139" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H139" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I139" t="s">
-        <v>418</v>
+        <v>708</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -26028,31 +26046,31 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B140" t="s">
         <v>378</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G140" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H140" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I140" t="s">
-        <v>420</v>
+        <v>708</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -26063,31 +26081,31 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B141" t="s">
         <v>378</v>
       </c>
       <c r="C141" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G141" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H141" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I141" t="s">
-        <v>412</v>
+        <v>708</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -26098,31 +26116,31 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B142" t="s">
         <v>378</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G142" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H142" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I142" t="s">
-        <v>413</v>
+        <v>708</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -26133,31 +26151,31 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B143" t="s">
         <v>378</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G143" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H143" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I143" t="s">
-        <v>413</v>
+        <v>708</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -26168,31 +26186,31 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B144" t="s">
         <v>378</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G144" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H144" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I144" t="s">
-        <v>413</v>
+        <v>708</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -26203,31 +26221,31 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B145" t="s">
         <v>378</v>
       </c>
       <c r="C145" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G145" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H145" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I145" t="s">
-        <v>422</v>
+        <v>708</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -26238,7 +26256,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B146" t="s">
         <v>378</v>
@@ -26247,22 +26265,22 @@
         <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>170</v>
+        <v>561</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G146" t="s">
         <v>175</v>
       </c>
       <c r="H146" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I146" t="s">
-        <v>422</v>
+        <v>709</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -26273,7 +26291,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B147" t="s">
         <v>378</v>
@@ -26282,22 +26300,22 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G147" t="s">
         <v>175</v>
       </c>
       <c r="H147" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I147" t="s">
-        <v>422</v>
+        <v>710</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -26308,7 +26326,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B148" t="s">
         <v>378</v>
@@ -26317,22 +26335,22 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G148" t="s">
         <v>175</v>
       </c>
       <c r="H148" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I148" t="s">
-        <v>424</v>
+        <v>710</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -26343,7 +26361,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B149" t="s">
         <v>378</v>
@@ -26352,22 +26370,22 @@
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>562</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G149" t="s">
         <v>175</v>
       </c>
       <c r="H149" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I149" t="s">
-        <v>422</v>
+        <v>710</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -26378,7 +26396,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B150" t="s">
         <v>378</v>
@@ -26387,22 +26405,22 @@
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G150" t="s">
         <v>175</v>
       </c>
       <c r="H150" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I150" t="s">
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -26413,7 +26431,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="B151" t="s">
         <v>378</v>
@@ -26422,22 +26440,22 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="G151" t="s">
         <v>175</v>
       </c>
       <c r="H151" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I151" t="s">
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -26448,31 +26466,31 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C152" t="s">
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>469</v>
+        <v>8</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G152" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="H152" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I152" t="s">
-        <v>473</v>
+        <v>710</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -26483,16 +26501,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>469</v>
+        <v>10</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -26507,7 +26525,7 @@
         <v>384</v>
       </c>
       <c r="I153" t="s">
-        <v>467</v>
+        <v>710</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -26518,31 +26536,31 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>469</v>
+        <v>7</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G154" t="s">
-        <v>388</v>
+        <v>175</v>
       </c>
       <c r="H154" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I154" t="s">
-        <v>474</v>
+        <v>710</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -26553,31 +26571,31 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>470</v>
+        <v>561</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G155" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H155" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I155" t="s">
-        <v>473</v>
+        <v>711</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -26588,31 +26606,31 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C156" t="s">
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>470</v>
+        <v>170</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G156" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H156" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I156" t="s">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -26623,16 +26641,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C157" t="s">
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>470</v>
+        <v>13</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -26641,13 +26659,13 @@
         <v>27</v>
       </c>
       <c r="G157" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H157" t="s">
         <v>381</v>
       </c>
       <c r="I157" t="s">
-        <v>474</v>
+        <v>711</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -26658,31 +26676,31 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C158" t="s">
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G158" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H158" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I158" t="s">
-        <v>473</v>
+        <v>711</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -26693,31 +26711,31 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C159" t="s">
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>471</v>
+        <v>171</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G159" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="H159" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I159" t="s">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -26728,16 +26746,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C160" t="s">
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>471</v>
+        <v>11</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -26746,13 +26764,13 @@
         <v>27</v>
       </c>
       <c r="G160" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H160" t="s">
         <v>381</v>
       </c>
       <c r="I160" t="s">
-        <v>474</v>
+        <v>711</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -26763,31 +26781,31 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="B161" t="s">
         <v>378</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>439</v>
+        <v>8</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G161" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H161" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I161" t="s">
-        <v>379</v>
+        <v>711</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -26807,7 +26825,7 @@
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -26842,7 +26860,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -26863,41 +26881,6 @@
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>559</v>
-      </c>
-      <c r="B164" t="s">
-        <v>378</v>
-      </c>
-      <c r="C164" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s">
-        <v>380</v>
-      </c>
-      <c r="H164" t="s">
-        <v>381</v>
-      </c>
-      <c r="I164" t="s">
-        <v>711</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164" t="s">
         <v>379</v>
       </c>
     </row>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -13,40 +13,39 @@
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="14" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId2"/>
-    <sheet name="DIM_Source" sheetId="1" r:id="rId3"/>
-    <sheet name="DIM_Status" sheetId="2" r:id="rId4"/>
-    <sheet name="DIM_Site" sheetId="3" r:id="rId5"/>
-    <sheet name="DIM_Coaching_Reason" sheetId="4" r:id="rId6"/>
-    <sheet name="DIM_Sub_Coaching_Reason" sheetId="5" r:id="rId7"/>
-    <sheet name="Historical_Source" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="DIM_Module" sheetId="7" r:id="rId9"/>
-    <sheet name="Employee_Selection" sheetId="8" r:id="rId10"/>
-    <sheet name="Module_Submission" sheetId="9" r:id="rId11"/>
-    <sheet name="DIM_Program" sheetId="10" r:id="rId12"/>
-    <sheet name="Coaching_Reason_Selection" sheetId="11" r:id="rId13"/>
-    <sheet name="CallID_Selection" sheetId="12" r:id="rId14"/>
-    <sheet name="Email_Notifications" sheetId="13" r:id="rId15"/>
-    <sheet name="ETS_Description" sheetId="15" r:id="rId16"/>
-    <sheet name="DIM_Behavior" sheetId="16" r:id="rId17"/>
-    <sheet name="Survey_DIM_Type" sheetId="17" r:id="rId18"/>
-    <sheet name="Survey_DIM_Question" sheetId="18" r:id="rId19"/>
-    <sheet name="Survey_DIM_Response" sheetId="19" r:id="rId20"/>
-    <sheet name="Survey_DIM_QAnswer" sheetId="20" r:id="rId21"/>
-    <sheet name="HR_Access" sheetId="21" r:id="rId22"/>
-    <sheet name="NPN Description" sheetId="23" r:id="rId23"/>
+    <sheet name="DIM_Source" sheetId="1" r:id="rId2"/>
+    <sheet name="DIM_Status" sheetId="2" r:id="rId3"/>
+    <sheet name="DIM_Site" sheetId="3" r:id="rId4"/>
+    <sheet name="DIM_Coaching_Reason" sheetId="4" r:id="rId5"/>
+    <sheet name="DIM_Sub_Coaching_Reason" sheetId="5" r:id="rId6"/>
+    <sheet name="Historical_Source" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="DIM_Module" sheetId="7" r:id="rId8"/>
+    <sheet name="Employee_Selection" sheetId="8" r:id="rId9"/>
+    <sheet name="Module_Submission" sheetId="9" r:id="rId10"/>
+    <sheet name="DIM_Program" sheetId="10" r:id="rId11"/>
+    <sheet name="Coaching_Reason_Selection" sheetId="11" r:id="rId12"/>
+    <sheet name="CallID_Selection" sheetId="12" r:id="rId13"/>
+    <sheet name="Email_Notifications" sheetId="13" r:id="rId14"/>
+    <sheet name="ETS_Description" sheetId="15" r:id="rId15"/>
+    <sheet name="DIM_Behavior" sheetId="16" r:id="rId16"/>
+    <sheet name="Survey_DIM_Type" sheetId="17" r:id="rId17"/>
+    <sheet name="Survey_DIM_Question" sheetId="18" r:id="rId18"/>
+    <sheet name="Survey_DIM_Response" sheetId="19" r:id="rId19"/>
+    <sheet name="Survey_DIM_QAnswer" sheetId="20" r:id="rId20"/>
+    <sheet name="HR_Access" sheetId="21" r:id="rId21"/>
+    <sheet name="NPN Description" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Coaching_Reason_Selection!$A$1:$P$292</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DIM_Source!$A$1:$H$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Email_Notifications!$A$1:$K$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Coaching_Reason_Selection!$A$1:$P$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DIM_Source!$A$1:$H$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Email_Notifications!$A$1:$K$163</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="838">
   <si>
     <t>SourceID</t>
   </si>
@@ -2555,6 +2554,12 @@
   </si>
   <si>
     <t>Updated Email_Notifications tab to update Email attributes for CSR Module Direct UI submission for Quality Specialist Coaching source</t>
+  </si>
+  <si>
+    <t>Updated Email_Notifications tab and DIM_Source tabs to support Outliers Performance Scorecard Source.</t>
+  </si>
+  <si>
+    <t>Performance Scorecard</t>
   </si>
 </sst>
 </file>
@@ -2919,9 +2924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3864,6 +3871,23 @@
         <v>835</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42888</v>
+      </c>
+      <c r="C56" t="s">
+        <v>432</v>
+      </c>
+      <c r="D56">
+        <v>6147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3871,435 +3895,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>688</v>
-      </c>
-      <c r="B14" t="s">
-        <v>689</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>329</v>
-      </c>
-      <c r="B16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>690</v>
-      </c>
-      <c r="B17" t="s">
-        <v>691</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
@@ -5646,7 +5241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5714,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P306"/>
   <sheetViews>
@@ -21030,7 +20625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -21158,11 +20753,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25801,31 +25398,31 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>439</v>
+        <v>837</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G133" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="H133" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="I133" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -25836,31 +25433,31 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>837</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G134" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H134" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I134" t="s">
-        <v>711</v>
+        <v>473</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -25871,7 +25468,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>559</v>
+        <v>175</v>
       </c>
       <c r="B135" t="s">
         <v>378</v>
@@ -25880,22 +25477,22 @@
         <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>439</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H135" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I135" t="s">
-        <v>711</v>
+        <v>379</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -25915,7 +25512,7 @@
         <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -25950,22 +25547,22 @@
         <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G137" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H137" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I137" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -25985,22 +25582,22 @@
         <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G138" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="H138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I138" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -26020,7 +25617,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>561</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -26055,7 +25652,7 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>562</v>
+        <v>170</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -26090,7 +25687,7 @@
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -26125,7 +25722,7 @@
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>562</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -26160,7 +25757,7 @@
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -26195,7 +25792,7 @@
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -26230,7 +25827,7 @@
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -26262,25 +25859,25 @@
         <v>378</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G146" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H146" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I146" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -26297,25 +25894,25 @@
         <v>378</v>
       </c>
       <c r="C147" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G147" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I147" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -26335,7 +25932,7 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>561</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -26350,7 +25947,7 @@
         <v>384</v>
       </c>
       <c r="I148" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -26370,7 +25967,7 @@
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>562</v>
+        <v>170</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -26405,7 +26002,7 @@
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -26440,7 +26037,7 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>562</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -26475,7 +26072,7 @@
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -26510,7 +26107,7 @@
         <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -26545,7 +26142,7 @@
         <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -26580,22 +26177,22 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G155" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H155" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I155" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -26615,22 +26212,22 @@
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G156" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H156" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I156" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -26650,7 +26247,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>561</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -26685,7 +26282,7 @@
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>562</v>
+        <v>170</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -26720,7 +26317,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -26755,7 +26352,7 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>562</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -26790,7 +26387,7 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -26825,7 +26422,7 @@
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -26860,7 +26457,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -26881,6 +26478,76 @@
         <v>0</v>
       </c>
       <c r="K163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>559</v>
+      </c>
+      <c r="B164" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s">
+        <v>380</v>
+      </c>
+      <c r="H164" t="s">
+        <v>381</v>
+      </c>
+      <c r="I164" t="s">
+        <v>711</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>559</v>
+      </c>
+      <c r="B165" t="s">
+        <v>378</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" t="s">
+        <v>380</v>
+      </c>
+      <c r="H165" t="s">
+        <v>381</v>
+      </c>
+      <c r="I165" t="s">
+        <v>711</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" t="s">
         <v>379</v>
       </c>
     </row>
@@ -26889,7 +26556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -27067,7 +26734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -27112,7 +26779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -27200,7 +26867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -27406,19 +27073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -27633,7 +27288,1968 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>706</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>754</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>837</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>211</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>212</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>218</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>439</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>221</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>222</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>472</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>223</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>470</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>471</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>225</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>489</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>490</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>561</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>229</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>562</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>706</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>231</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>754</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>232</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>837</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -28280,7 +29896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -28555,7 +30171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -28624,1909 +30240,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>118</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>119</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>120</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>439</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>122</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>471</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>490</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>491</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>128</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>561</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>129</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>562</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>706</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>754</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>201</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>203</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>204</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>205</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>207</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>208</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>209</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>211</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>212</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>213</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>215</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>216</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>217</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>218</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>219</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>220</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>439</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>221</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>222</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>472</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>223</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>470</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>471</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>225</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>489</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>226</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>490</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>227</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>491</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>228</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>561</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>229</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>562</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>230</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>706</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>231</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>754</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30630,7 +30343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -30945,7 +30658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B58"/>
   <sheetViews>
@@ -31426,7 +31139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B241"/>
   <sheetViews>
@@ -33371,7 +33084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -33917,7 +33630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -34068,4 +33781,433 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>690</v>
+      </c>
+      <c r="B17" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="890">
   <si>
     <t>SourceID</t>
   </si>
@@ -1572,90 +1572,60 @@
     <t>Excused Absence</t>
   </si>
   <si>
-    <t>The employee recorded incorrect Excused Absence hours.    All paid leave (General Leave or floating Holiday time) must be exhausted before using Excused Absence 080984 | 3517.    Excused Absence cannot be taken for full days of leave and you must have some worked hours recorded for the days this project|task code is used.    Exempt employees absent for a full day must use LWOP 080984 | 9005.</t>
-  </si>
-  <si>
     <t>EOT</t>
   </si>
   <si>
     <t>Exempt Over Time</t>
   </si>
   <si>
-    <t>The exempt employee incorrectly recorded overtime hours.    Exempt employees are expected to occasionally exceed the standard workweek (Saturday through Friday) as assigned tasks may demand.     In most cases such work, which exceeds the standard workweek, is not eligible for additional pay and should be recorded as straight time.    CCO exempt employees should not charge overtime without direction from CCO Communications.</t>
-  </si>
-  <si>
     <t>FWH</t>
   </si>
   <si>
     <t>Future Worked Hours</t>
   </si>
   <si>
-    <t>The employee has entered worked hours in advance.      The only circumstances in which worked hours should be entered in advance are:     When the employee’s Friday shift doesn’t start until after the stated deadline for them to sign their timecard or     When the employee is working off-site or traveling and will not have access to ETS.     If this employee doesn’t fall under one of these situations please coach them and have them remove the future worked hours from their timecard.</t>
-  </si>
-  <si>
     <t>FWHA</t>
   </si>
   <si>
     <t>Future Worked Hours (Approver)</t>
   </si>
   <si>
-    <t>The employee has approved a timecard with worked hours entered in advance.      The only circumstances in which worked hours should be entered in advance are:     When the employee’s Friday shift doesn’t start until after the stated deadline for them to approve timecards or     When the employee is working off-site or traveling and will not have access to ETS for approvals.     If this employee doesn’t fall under one of these situations please coach them and have them remove the future worked hours from their timecard.</t>
-  </si>
-  <si>
     <t>HOL</t>
   </si>
   <si>
     <t>Incorrect Holiday</t>
   </si>
   <si>
-    <t>The non-exempt employee recorded incorrect hours on a holiday or recorded holiday hours on an incorrect day.   As a reminder, per HR-POL-203 Holidays, for employees with GSA administered benefits:  Holiday can only be recorded on the day it is observed.   To receive holiday pay, other paid hours must be recorded in the week in which a holiday is observed.    If an employee works on the observed holiday, holiday and time worked would be recorded.    If the observed holiday falls on an employee’s scheduled day-off, only holiday hours would be recorded.   Leave time cannot be recorded on a day in which a holiday is recorded.   Shift and bilingual premiums do not apply to holiday hours.   When an employee takes a fixed holiday off, the time must be charged in a whole-day increment to holiday, regardless of the total number of hours worked in the particular pay period.</t>
-  </si>
-  <si>
     <t>HOLA</t>
   </si>
   <si>
     <t>Incorrect Holiday (Approver)</t>
   </si>
   <si>
-    <t>A timecard was approved with incorrect hours recorded on a holiday or holiday hours recorded on an incorrect day.   As a reminder, per HR-POL-203 Holidays, for employees with GSA administered benefits:  Holiday can only be recorded on the day it is observed.   To receive holiday pay, other paid hours must be recorded in the week in which a holiday is observed.   If an employee works on the observed holiday, holiday and time worked would be recorded.    If the observed holiday falls on an employee’s scheduled day-off, only holiday hours would be recorded.   Leave time cannot be recorded on a day in which a holiday is recorded.   Shift and bilingual premiums do not apply to holiday hours.   When an employee takes a fixed holiday off, the time must be charged in a whole-day increment to holiday, regardless of the total number of hours worked in the particular pay   period.</t>
-  </si>
-  <si>
     <t>ITD</t>
   </si>
   <si>
     <t>Invalid Timecodes Direct</t>
   </si>
   <si>
-    <t>The employee recorded worked hours with a time code that is not valid in the CCO program.    Please see your supervisor for a list of valid time codes used in the CCO.</t>
-  </si>
-  <si>
     <t>ITDA</t>
   </si>
   <si>
     <t>Invalid Timecodes Direct (Approver)</t>
   </si>
   <si>
-    <t>The employee approved a timecard with a time code that is not valid in the CCO program.      The list of valid time codes can be found in the Common_CCO_Time_Codes document on CCO Knowledge Net under the timekeeping category.</t>
-  </si>
-  <si>
     <t>ITI</t>
   </si>
   <si>
     <t>Invalid Timecodes Indirect</t>
   </si>
   <si>
-    <t>The employee recorded paid leave with an invalid time code.       Paid leave is not eligible for shift or bilingual premium.  All paid leave must be recorded with time code of 01 or *.</t>
-  </si>
-  <si>
     <t>ITIA</t>
   </si>
   <si>
     <t>Invalid Timecodes Indirect (Approver)</t>
   </si>
   <si>
-    <t>The employee approved a timecard that had paid leave with and invalid time code.     Paid leave is not eligible for shift or bilingual premium.      All paid leave must be recorded with time code of 01 or *.</t>
-  </si>
-  <si>
     <t>UTL</t>
   </si>
   <si>
@@ -1671,9 +1641,6 @@
     <t xml:space="preserve">Outstanding Action (Employee) </t>
   </si>
   <si>
-    <t>The employee either did not sign his or her timecard by the Friday deadline for the period below, or it was signed with errors and rejected.         Please review and take action as necessary.         The time period and employee name are below:</t>
-  </si>
-  <si>
     <t>OAS</t>
   </si>
   <si>
@@ -2163,9 +2130,6 @@
     <t>Updated description for OAS Report code in ETS_Description tab</t>
   </si>
   <si>
-    <t>It appears the supervisor may have missed the deadline to approve this timecard.        Please research and coach as necessary..          The time period, manager name, and name of employee whose timecard requires action are below:</t>
-  </si>
-  <si>
     <t>Verint-GDIT Supervisor</t>
   </si>
   <si>
@@ -2560,6 +2524,198 @@
   </si>
   <si>
     <t>Performance Scorecard</t>
+  </si>
+  <si>
+    <t>Updated Email_Notifications tab and DIM_SubCoaching_Reason and DIM_Source tabs to support Generic DTT Feed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Email_Notifications tab tosupport ATA forms in IQS Feeds for Quality Module </t>
+  </si>
+  <si>
+    <t>Empower</t>
+  </si>
+  <si>
+    <t>High Number of Changes</t>
+  </si>
+  <si>
+    <t>Incorrect Change Category</t>
+  </si>
+  <si>
+    <t>Discrepancy Tracking</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>A new eCoaching Log has been entered and requires your action. Please click on the link below to review and acknowledge the eCL entered on &lt;strong&gt; strDateTime &lt;/strong&gt;.</t>
+  </si>
+  <si>
+    <t>Updated ETS_Description tab and DIM_SubCoaching_Reason tabs to support ETS HNC and ICC feeds</t>
+  </si>
+  <si>
+    <t>The employee recorded incorrect Excused Absence hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All paid leave (General Leave or floating Holiday time) must be exhausted before using Excused Absence 080984 | 3517.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Excused Absence cannot be taken for full days of leave and you must have some worked hours recorded for the days this project|task code is used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Exempt employees absent for a full day must use LWOP 080984 | 9005.</t>
+  </si>
+  <si>
+    <t>The exempt employee incorrectly recorded overtime hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Exempt employees are expected to occasionally exceed the standard workweek (Saturday through Friday) as assigned tasks may demand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  In most cases such work, which exceeds the standard workweek, is not eligible for additional pay and should be recorded as straight time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CCO exempt employees should not charge overtime without direction from CCO Communications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee has entered worked hours in advance.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The only circumstances in which worked hours should be entered in advance are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   When the employee’s Friday shift doesn’t start until after the stated deadline for them to sign their timecard or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   When the employee is working off-site or traveling and will not have access to ETS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   If this employee doesn’t fall under one of these situations please coach them and have them remove the future worked hours from their timecard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee has approved a timecard with worked hours entered in advance.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   When the employee’s Friday shift doesn’t start until after the stated deadline for them to approve timecards or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   When the employee is working off-site or traveling and will not have access to ETS for approvals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The non-exempt employee recorded incorrect hours on a holiday or recorded holiday hours on an incorrect day. </t>
+  </si>
+  <si>
+    <t>As a reminder, per HR-POL-203 Holidays, for employees with GSA administered benefits:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday can only be recorded on the day it is observed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To receive holiday pay, other paid hours must be recorded in the week in which a holiday is observed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If an employee works on the observed holiday, holiday and time worked would be recorded.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the observed holiday falls on an employee’s scheduled day-off, only holiday hours would be recorded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave time cannot be recorded on a day in which a holiday is recorded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift and bilingual premiums do not apply to holiday hours. </t>
+  </si>
+  <si>
+    <t>When an employee takes a fixed holiday off, the time must be charged in a whole-day increment to holiday, regardless of the total number of hours worked in the particular pay period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A timecard was approved with incorrect hours recorded on a holiday or holiday hours recorded on an incorrect day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If an employee works on the observed holiday, holiday and time worked would be recorded.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an employee takes a fixed holiday off, the time must be charged in a whole-day increment to holiday, regardless of the total number of hours worked in the particular pay </t>
+  </si>
+  <si>
+    <t>period.</t>
+  </si>
+  <si>
+    <t>The employee recorded worked hours with a time code that is not valid in the CCO program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Please see your supervisor for a list of valid time codes used in the CCO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee approved a timecard with a time code that is not valid in the CCO program.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The list of valid time codes can be found in the Common_CCO_Time_Codes document on CCO Knowledge Net under the timekeeping category.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee recorded paid leave with an invalid time code.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Paid leave is not eligible for shift or bilingual premium.  All paid leave must be recorded with time code of 01 or *.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee approved a timecard that had paid leave with and invalid time code. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paid leave is not eligible for shift or bilingual premium.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All paid leave must be recorded with time code of 01 or *.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee either did not sign his or her timecard by the Friday deadline for the period below, or it was signed with errors and rejected. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Please review and take action as necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     The time period and employee name are below:</t>
+  </si>
+  <si>
+    <t>It appears the supervisor may have missed the deadline to approve this timecard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Please research and coach as necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      The time period, manager name, and name of employee whose timecard requires action are below:</t>
+  </si>
+  <si>
+    <t>HNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee made an unusually high number of changes on their timecard for last week.  While not all timecard changes can be avoided, large numbers of timecard changes are often a sign that an employee may not understand the correct process for calculating and entering time in ETS.  </t>
+  </si>
+  <si>
+    <t>Many of the employees who made high numbers of changes also failed to accurately explain why the changes were being made.  Please refer to the communication linked on the report page that explains the required level of detail and contains examples of appropriate timecard change reasons.</t>
+  </si>
+  <si>
+    <t>If the changes were avoidable, please coach the employee on the correct way to calculate and enter time in ETS.  If the employee failed to provide adequate change reasons, please coach the employee on the required level of detail for timecard change reasons.  There is no need to make changes to the change category or reason for current or previous timecards.</t>
+  </si>
+  <si>
+    <t>The date and number of changes is shown below:</t>
+  </si>
+  <si>
+    <t>ICC</t>
+  </si>
+  <si>
+    <t>Incorrect Change Categories</t>
+  </si>
+  <si>
+    <t>The employee selected incorrect Change Categories when changing previously entered hours in ETS last week.  It is important that employees select the best available change category when changing previous ETS entries.</t>
+  </si>
+  <si>
+    <t>Many of the employees who selected incorrect change categories also failed to accurately explain why the changes were being made.  Please refer to the communication linked on the report page that explains the required level of detail and contains examples of appropriate timecard change reasons.</t>
+  </si>
+  <si>
+    <t>Please coach the employee on selecting the correct change categories in ETS when adjustments are needed.  If the employee failed to provide adequate change reasons, please also coach the employee on the required level of detail for timecard change reasons.  There is no need to make changes to the change category or reason for current or previous timecards.</t>
+  </si>
+  <si>
+    <t>The timecard date and number of changes with incorrect change categories is shown below:</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2596,6 +2752,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2612,7 +2774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2620,6 +2782,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2924,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3222,7 +3385,7 @@
         <v>14031</v>
       </c>
       <c r="E17" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3239,7 +3402,7 @@
         <v>14031</v>
       </c>
       <c r="E18" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3256,7 +3419,7 @@
         <v>14139</v>
       </c>
       <c r="E19" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3273,7 +3436,7 @@
         <v>14252</v>
       </c>
       <c r="E20" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3290,7 +3453,7 @@
         <v>14422</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3307,7 +3470,7 @@
         <v>14703</v>
       </c>
       <c r="E22" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3324,7 +3487,7 @@
         <v>14703</v>
       </c>
       <c r="E23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3341,7 +3504,7 @@
         <v>14512</v>
       </c>
       <c r="E24" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3358,7 +3521,7 @@
         <v>15029</v>
       </c>
       <c r="E25" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3375,7 +3538,7 @@
         <v>15008</v>
       </c>
       <c r="E26" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3392,7 +3555,7 @@
         <v>15075</v>
       </c>
       <c r="E27" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3409,7 +3572,7 @@
         <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3426,7 +3589,7 @@
         <v>413</v>
       </c>
       <c r="E29" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3443,7 +3606,7 @@
         <v>604</v>
       </c>
       <c r="E30" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3460,7 +3623,7 @@
         <v>667</v>
       </c>
       <c r="E31" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3477,7 +3640,7 @@
         <v>549</v>
       </c>
       <c r="E32" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3494,7 +3657,7 @@
         <v>644</v>
       </c>
       <c r="E33" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3511,7 +3674,7 @@
         <v>841</v>
       </c>
       <c r="E34" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3528,7 +3691,7 @@
         <v>861</v>
       </c>
       <c r="E35" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3545,7 +3708,7 @@
         <v>1013</v>
       </c>
       <c r="E36" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3562,7 +3725,7 @@
         <v>1016</v>
       </c>
       <c r="E37" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3579,7 +3742,7 @@
         <v>1555</v>
       </c>
       <c r="E38" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3596,7 +3759,7 @@
         <v>1555</v>
       </c>
       <c r="E39" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3613,7 +3776,7 @@
         <v>2249</v>
       </c>
       <c r="E40" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3630,7 +3793,7 @@
         <v>2283</v>
       </c>
       <c r="E41" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3647,7 +3810,7 @@
         <v>2332</v>
       </c>
       <c r="E42" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3664,7 +3827,7 @@
         <v>2668</v>
       </c>
       <c r="E43" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3681,7 +3844,7 @@
         <v>2669</v>
       </c>
       <c r="E44" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3698,7 +3861,7 @@
         <v>2830</v>
       </c>
       <c r="E45" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3715,7 +3878,7 @@
         <v>2268</v>
       </c>
       <c r="E46" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3729,10 +3892,10 @@
         <v>432</v>
       </c>
       <c r="D47" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E47" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3749,7 +3912,7 @@
         <v>3605</v>
       </c>
       <c r="E48" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3766,7 +3929,7 @@
         <v>3440</v>
       </c>
       <c r="E49" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3783,7 +3946,7 @@
         <v>4137</v>
       </c>
       <c r="E50" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3800,7 +3963,7 @@
         <v>5653</v>
       </c>
       <c r="E51" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3817,7 +3980,7 @@
         <v>6145</v>
       </c>
       <c r="E52" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3834,7 +3997,7 @@
         <v>6377</v>
       </c>
       <c r="E53" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3851,7 +4014,7 @@
         <v>6377</v>
       </c>
       <c r="E54" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3868,7 +4031,7 @@
         <v>6882</v>
       </c>
       <c r="E55" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3885,7 +4048,40 @@
         <v>6147</v>
       </c>
       <c r="E56" t="s">
-        <v>836</v>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C57" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57">
+        <v>7174</v>
+      </c>
+      <c r="E57" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>7646</v>
+      </c>
+      <c r="E58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>7541</v>
+      </c>
+      <c r="E59" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +4118,7 @@
         <v>479</v>
       </c>
       <c r="G1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4295,10 +4491,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B18" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5031,10 +5227,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B50" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5054,10 +5250,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B51" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5077,10 +5273,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B52" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5100,10 +5296,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B53" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5123,10 +5319,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B54" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5146,10 +5342,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B55" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5169,10 +5365,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B56" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5192,10 +5388,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B57" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5215,10 +5411,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="B58" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5367,7 +5563,7 @@
         <v>479</v>
       </c>
       <c r="P1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -6881,7 +7077,7 @@
         <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -6931,7 +7127,7 @@
         <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -6981,7 +7177,7 @@
         <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -7031,7 +7227,7 @@
         <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -7081,7 +7277,7 @@
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7131,7 +7327,7 @@
         <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -7181,7 +7377,7 @@
         <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -7231,7 +7427,7 @@
         <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -7281,7 +7477,7 @@
         <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -7325,13 +7521,13 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C41">
         <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -7375,7 +7571,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -7425,13 +7621,13 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C43">
         <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -7475,13 +7671,13 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C44">
         <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -7525,13 +7721,13 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C45">
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -7575,13 +7771,13 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C46">
         <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -7625,13 +7821,13 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C47">
         <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -7675,13 +7871,13 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C48">
         <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -7725,13 +7921,13 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C49">
         <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -7775,13 +7971,13 @@
         <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C50">
         <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -7825,13 +8021,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C51">
         <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -7875,13 +8071,13 @@
         <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C52">
         <v>223</v>
       </c>
       <c r="D52" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -7925,7 +8121,7 @@
         <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C53">
         <v>42</v>
@@ -7975,13 +8171,13 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C54">
         <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -8025,13 +8221,13 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C55">
         <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -8075,13 +8271,13 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C56">
         <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -8125,7 +8321,7 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C57">
         <v>42</v>
@@ -8175,13 +8371,13 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C58">
         <v>186</v>
       </c>
       <c r="D58" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -8225,13 +8421,13 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C59">
         <v>187</v>
       </c>
       <c r="D59" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -8275,7 +8471,7 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C60">
         <v>42</v>
@@ -8325,13 +8521,13 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C61">
         <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -8375,7 +8571,7 @@
         <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C62">
         <v>42</v>
@@ -8425,13 +8621,13 @@
         <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C63">
         <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -8475,13 +8671,13 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C64">
         <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -8525,7 +8721,7 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C65">
         <v>42</v>
@@ -8575,13 +8771,13 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C66">
         <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -8625,7 +8821,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C67">
         <v>42</v>
@@ -8675,13 +8871,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C68">
         <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -8725,7 +8921,7 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C69">
         <v>42</v>
@@ -8775,13 +8971,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -8825,7 +9021,7 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C71">
         <v>42</v>
@@ -8881,7 +9077,7 @@
         <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -8925,13 +9121,13 @@
         <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C73">
         <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -8975,13 +9171,13 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C74">
         <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -9025,13 +9221,13 @@
         <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C75">
         <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -9075,13 +9271,13 @@
         <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C76">
         <v>193</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -9125,13 +9321,13 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C77">
         <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -9175,7 +9371,7 @@
         <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C78">
         <v>42</v>
@@ -9225,13 +9421,13 @@
         <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C79">
         <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -9275,7 +9471,7 @@
         <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C80">
         <v>42</v>
@@ -9325,13 +9521,13 @@
         <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C81">
         <v>192</v>
       </c>
       <c r="D81" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -9375,13 +9571,13 @@
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C82">
         <v>197</v>
       </c>
       <c r="D82" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -9425,13 +9621,13 @@
         <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C83">
         <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -9475,7 +9671,7 @@
         <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C84">
         <v>42</v>
@@ -9531,7 +9727,7 @@
         <v>130</v>
       </c>
       <c r="D85" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -9581,7 +9777,7 @@
         <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -9631,7 +9827,7 @@
         <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -9681,7 +9877,7 @@
         <v>149</v>
       </c>
       <c r="D88" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -9731,7 +9927,7 @@
         <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -9781,7 +9977,7 @@
         <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -9831,7 +10027,7 @@
         <v>183</v>
       </c>
       <c r="D91" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -9881,7 +10077,7 @@
         <v>196</v>
       </c>
       <c r="D92" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -9931,7 +10127,7 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -9981,7 +10177,7 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -10031,7 +10227,7 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -10081,7 +10277,7 @@
         <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -10131,7 +10327,7 @@
         <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -10181,7 +10377,7 @@
         <v>219</v>
       </c>
       <c r="D98" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -10231,7 +10427,7 @@
         <v>226</v>
       </c>
       <c r="D99" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -10281,7 +10477,7 @@
         <v>227</v>
       </c>
       <c r="D100" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -10325,13 +10521,13 @@
         <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C101">
         <v>194</v>
       </c>
       <c r="D101" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -10375,13 +10571,13 @@
         <v>47</v>
       </c>
       <c r="B102" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C102">
         <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -10425,7 +10621,7 @@
         <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C103">
         <v>42</v>
@@ -10481,7 +10677,7 @@
         <v>133</v>
       </c>
       <c r="D104" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -10531,7 +10727,7 @@
         <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -10581,7 +10777,7 @@
         <v>144</v>
       </c>
       <c r="D106" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -10631,7 +10827,7 @@
         <v>147</v>
       </c>
       <c r="D107" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -10681,7 +10877,7 @@
         <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -10731,7 +10927,7 @@
         <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -10781,7 +10977,7 @@
         <v>195</v>
       </c>
       <c r="D110" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -10831,7 +11027,7 @@
         <v>224</v>
       </c>
       <c r="D111" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -10875,13 +11071,13 @@
         <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C112">
         <v>188</v>
       </c>
       <c r="D112" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -10925,13 +11121,13 @@
         <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C113">
         <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -10975,13 +11171,13 @@
         <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C114">
         <v>190</v>
       </c>
       <c r="D114" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -11025,7 +11221,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C115">
         <v>42</v>
@@ -11075,13 +11271,13 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C116">
         <v>163</v>
       </c>
       <c r="D116" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -11125,13 +11321,13 @@
         <v>50</v>
       </c>
       <c r="B117" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C117">
         <v>191</v>
       </c>
       <c r="D117" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -11175,7 +11371,7 @@
         <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C118">
         <v>42</v>
@@ -11225,13 +11421,13 @@
         <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C119">
         <v>134</v>
       </c>
       <c r="D119" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -11275,13 +11471,13 @@
         <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C120">
         <v>142</v>
       </c>
       <c r="D120" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -11325,13 +11521,13 @@
         <v>51</v>
       </c>
       <c r="B121" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C121">
         <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -11375,13 +11571,13 @@
         <v>51</v>
       </c>
       <c r="B122" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C122">
         <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -11425,13 +11621,13 @@
         <v>51</v>
       </c>
       <c r="B123" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C123">
         <v>217</v>
       </c>
       <c r="D123" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -11475,13 +11671,13 @@
         <v>51</v>
       </c>
       <c r="B124" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C124">
         <v>218</v>
       </c>
       <c r="D124" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -11525,13 +11721,13 @@
         <v>51</v>
       </c>
       <c r="B125" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C125">
         <v>220</v>
       </c>
       <c r="D125" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -11575,13 +11771,13 @@
         <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C126">
         <v>221</v>
       </c>
       <c r="D126" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -11625,7 +11821,7 @@
         <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C127">
         <v>42</v>
@@ -11675,13 +11871,13 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C128">
         <v>127</v>
       </c>
       <c r="D128" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -11725,13 +11921,13 @@
         <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C129">
         <v>135</v>
       </c>
       <c r="D129" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -11775,13 +11971,13 @@
         <v>52</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C130">
         <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -11825,13 +12021,13 @@
         <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C131">
         <v>140</v>
       </c>
       <c r="D131" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -11875,13 +12071,13 @@
         <v>52</v>
       </c>
       <c r="B132" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C132">
         <v>158</v>
       </c>
       <c r="D132" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -11925,13 +12121,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C133">
         <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -11975,13 +12171,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C134">
         <v>200</v>
       </c>
       <c r="D134" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -12025,13 +12221,13 @@
         <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C135">
         <v>204</v>
       </c>
       <c r="D135" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -12075,7 +12271,7 @@
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C136">
         <v>42</v>
@@ -12125,13 +12321,13 @@
         <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C137">
         <v>165</v>
       </c>
       <c r="D137" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -12175,7 +12371,7 @@
         <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C138">
         <v>42</v>
@@ -12225,13 +12421,13 @@
         <v>54</v>
       </c>
       <c r="B139" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C139">
         <v>177</v>
       </c>
       <c r="D139" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -12275,13 +12471,13 @@
         <v>54</v>
       </c>
       <c r="B140" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C140">
         <v>185</v>
       </c>
       <c r="D140" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -12325,7 +12521,7 @@
         <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C141">
         <v>42</v>
@@ -12381,7 +12577,7 @@
         <v>128</v>
       </c>
       <c r="D142" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -12481,7 +12677,7 @@
         <v>146</v>
       </c>
       <c r="D144" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -12531,7 +12727,7 @@
         <v>210</v>
       </c>
       <c r="D145" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -12581,7 +12777,7 @@
         <v>215</v>
       </c>
       <c r="D146" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -12631,7 +12827,7 @@
         <v>225</v>
       </c>
       <c r="D147" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -12831,7 +13027,7 @@
         <v>230</v>
       </c>
       <c r="D151" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -12881,7 +13077,7 @@
         <v>232</v>
       </c>
       <c r="D152" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -12931,7 +13127,7 @@
         <v>233</v>
       </c>
       <c r="D153" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -12981,7 +13177,7 @@
         <v>234</v>
       </c>
       <c r="D154" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -13031,7 +13227,7 @@
         <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -13081,7 +13277,7 @@
         <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -13131,7 +13327,7 @@
         <v>237</v>
       </c>
       <c r="D157" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -13175,13 +13371,13 @@
         <v>55</v>
       </c>
       <c r="B158" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C158">
         <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -13225,13 +13421,13 @@
         <v>55</v>
       </c>
       <c r="B159" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C159">
         <v>123</v>
       </c>
       <c r="D159" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -13275,13 +13471,13 @@
         <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C160">
         <v>124</v>
       </c>
       <c r="D160" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -13325,13 +13521,13 @@
         <v>55</v>
       </c>
       <c r="B161" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C161">
         <v>125</v>
       </c>
       <c r="D161" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -13375,13 +13571,13 @@
         <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C162">
         <v>126</v>
       </c>
       <c r="D162" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -13425,13 +13621,13 @@
         <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C163">
         <v>230</v>
       </c>
       <c r="D163" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -13475,7 +13671,7 @@
         <v>55</v>
       </c>
       <c r="B164" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="C164">
         <v>42</v>
@@ -19481,7 +19677,7 @@
         <v>184</v>
       </c>
       <c r="D284" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -19531,7 +19727,7 @@
         <v>197</v>
       </c>
       <c r="D285" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -19581,7 +19777,7 @@
         <v>228</v>
       </c>
       <c r="D286" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -19625,13 +19821,13 @@
         <v>40</v>
       </c>
       <c r="B287" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C287">
         <v>188</v>
       </c>
       <c r="D287" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -19675,13 +19871,13 @@
         <v>40</v>
       </c>
       <c r="B288" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C288">
         <v>189</v>
       </c>
       <c r="D288" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -19725,13 +19921,13 @@
         <v>40</v>
       </c>
       <c r="B289" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C289">
         <v>190</v>
       </c>
       <c r="D289" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -19775,7 +19971,7 @@
         <v>40</v>
       </c>
       <c r="B290" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C290">
         <v>42</v>
@@ -19825,13 +20021,13 @@
         <v>41</v>
       </c>
       <c r="B291" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C291">
         <v>182</v>
       </c>
       <c r="D291" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -19875,13 +20071,13 @@
         <v>41</v>
       </c>
       <c r="B292" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C292">
         <v>205</v>
       </c>
       <c r="D292" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -19925,13 +20121,13 @@
         <v>41</v>
       </c>
       <c r="B293" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C293">
         <v>213</v>
       </c>
       <c r="D293" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -19975,7 +20171,7 @@
         <v>41</v>
       </c>
       <c r="B294" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C294">
         <v>42</v>
@@ -20025,13 +20221,13 @@
         <v>42</v>
       </c>
       <c r="B295" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C295">
         <v>156</v>
       </c>
       <c r="D295" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -20075,13 +20271,13 @@
         <v>42</v>
       </c>
       <c r="B296" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C296">
         <v>160</v>
       </c>
       <c r="D296" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -20125,13 +20321,13 @@
         <v>42</v>
       </c>
       <c r="B297" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C297">
         <v>180</v>
       </c>
       <c r="D297" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -20175,13 +20371,13 @@
         <v>42</v>
       </c>
       <c r="B298" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C298">
         <v>211</v>
       </c>
       <c r="D298" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -20225,13 +20421,13 @@
         <v>42</v>
       </c>
       <c r="B299" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C299">
         <v>216</v>
       </c>
       <c r="D299" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -20275,13 +20471,13 @@
         <v>42</v>
       </c>
       <c r="B300" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C300">
         <v>229</v>
       </c>
       <c r="D300" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -20325,7 +20521,7 @@
         <v>42</v>
       </c>
       <c r="B301" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C301">
         <v>42</v>
@@ -20375,13 +20571,13 @@
         <v>43</v>
       </c>
       <c r="B302" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C302">
         <v>150</v>
       </c>
       <c r="D302" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -20425,7 +20621,7 @@
         <v>43</v>
       </c>
       <c r="B303" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C303">
         <v>42</v>
@@ -20475,13 +20671,13 @@
         <v>44</v>
       </c>
       <c r="B304" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C304">
         <v>129</v>
       </c>
       <c r="D304" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -20525,13 +20721,13 @@
         <v>44</v>
       </c>
       <c r="B305" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C305">
         <v>152</v>
       </c>
       <c r="D305" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -20575,13 +20771,13 @@
         <v>44</v>
       </c>
       <c r="B306" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C306">
         <v>154</v>
       </c>
       <c r="D306" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -20653,7 +20849,7 @@
         <v>479</v>
       </c>
       <c r="G1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -20755,10 +20951,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21268,7 +21464,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B15" t="s">
         <v>378</v>
@@ -24007,7 +24203,7 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -24042,7 +24238,7 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -24077,7 +24273,7 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -24112,7 +24308,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -24147,7 +24343,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -25048,7 +25244,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B123" t="s">
         <v>378</v>
@@ -25057,7 +25253,7 @@
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -25072,7 +25268,7 @@
         <v>381</v>
       </c>
       <c r="I123" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -25083,7 +25279,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B124" t="s">
         <v>378</v>
@@ -25107,7 +25303,7 @@
         <v>381</v>
       </c>
       <c r="I124" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -25118,7 +25314,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B125" t="s">
         <v>378</v>
@@ -25142,7 +25338,7 @@
         <v>381</v>
       </c>
       <c r="I125" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -25153,7 +25349,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B126" t="s">
         <v>378</v>
@@ -25162,7 +25358,7 @@
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -25177,7 +25373,7 @@
         <v>381</v>
       </c>
       <c r="I126" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -25188,7 +25384,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B127" t="s">
         <v>378</v>
@@ -25212,7 +25408,7 @@
         <v>381</v>
       </c>
       <c r="I127" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -25223,7 +25419,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B128" t="s">
         <v>378</v>
@@ -25247,7 +25443,7 @@
         <v>381</v>
       </c>
       <c r="I128" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -25267,7 +25463,7 @@
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -25334,7 +25530,7 @@
         <v>385</v>
       </c>
       <c r="C131" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -25407,7 +25603,7 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -25442,7 +25638,7 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -25503,7 +25699,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B136" t="s">
         <v>378</v>
@@ -25527,7 +25723,7 @@
         <v>381</v>
       </c>
       <c r="I136" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -25538,7 +25734,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B137" t="s">
         <v>378</v>
@@ -25562,7 +25758,7 @@
         <v>381</v>
       </c>
       <c r="I137" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -25573,7 +25769,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B138" t="s">
         <v>378</v>
@@ -25597,7 +25793,7 @@
         <v>381</v>
       </c>
       <c r="I138" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -25608,7 +25804,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B139" t="s">
         <v>378</v>
@@ -25617,7 +25813,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -25632,7 +25828,7 @@
         <v>383</v>
       </c>
       <c r="I139" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -25643,7 +25839,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B140" t="s">
         <v>378</v>
@@ -25667,7 +25863,7 @@
         <v>383</v>
       </c>
       <c r="I140" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -25678,7 +25874,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B141" t="s">
         <v>378</v>
@@ -25702,7 +25898,7 @@
         <v>383</v>
       </c>
       <c r="I141" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -25713,7 +25909,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B142" t="s">
         <v>378</v>
@@ -25722,7 +25918,7 @@
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -25737,7 +25933,7 @@
         <v>383</v>
       </c>
       <c r="I142" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -25748,7 +25944,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B143" t="s">
         <v>378</v>
@@ -25772,7 +25968,7 @@
         <v>383</v>
       </c>
       <c r="I143" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -25783,7 +25979,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B144" t="s">
         <v>378</v>
@@ -25807,7 +26003,7 @@
         <v>383</v>
       </c>
       <c r="I144" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -25818,7 +26014,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B145" t="s">
         <v>378</v>
@@ -25842,7 +26038,7 @@
         <v>383</v>
       </c>
       <c r="I145" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -25853,7 +26049,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B146" t="s">
         <v>378</v>
@@ -25877,7 +26073,7 @@
         <v>383</v>
       </c>
       <c r="I146" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -25888,7 +26084,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B147" t="s">
         <v>378</v>
@@ -25912,7 +26108,7 @@
         <v>383</v>
       </c>
       <c r="I147" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -25923,7 +26119,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B148" t="s">
         <v>378</v>
@@ -25932,7 +26128,7 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -25947,7 +26143,7 @@
         <v>384</v>
       </c>
       <c r="I148" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -25958,7 +26154,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B149" t="s">
         <v>378</v>
@@ -25982,7 +26178,7 @@
         <v>384</v>
       </c>
       <c r="I149" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -25993,7 +26189,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B150" t="s">
         <v>378</v>
@@ -26017,7 +26213,7 @@
         <v>384</v>
       </c>
       <c r="I150" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -26028,7 +26224,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B151" t="s">
         <v>378</v>
@@ -26037,7 +26233,7 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -26052,7 +26248,7 @@
         <v>384</v>
       </c>
       <c r="I151" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -26063,7 +26259,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B152" t="s">
         <v>378</v>
@@ -26087,7 +26283,7 @@
         <v>384</v>
       </c>
       <c r="I152" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -26098,7 +26294,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B153" t="s">
         <v>378</v>
@@ -26122,7 +26318,7 @@
         <v>384</v>
       </c>
       <c r="I153" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -26133,7 +26329,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B154" t="s">
         <v>378</v>
@@ -26157,7 +26353,7 @@
         <v>384</v>
       </c>
       <c r="I154" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -26168,7 +26364,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B155" t="s">
         <v>378</v>
@@ -26192,7 +26388,7 @@
         <v>384</v>
       </c>
       <c r="I155" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -26203,7 +26399,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B156" t="s">
         <v>378</v>
@@ -26227,7 +26423,7 @@
         <v>384</v>
       </c>
       <c r="I156" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -26238,7 +26434,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B157" t="s">
         <v>378</v>
@@ -26247,7 +26443,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -26262,7 +26458,7 @@
         <v>381</v>
       </c>
       <c r="I157" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -26273,7 +26469,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B158" t="s">
         <v>378</v>
@@ -26297,7 +26493,7 @@
         <v>381</v>
       </c>
       <c r="I158" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -26308,7 +26504,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B159" t="s">
         <v>378</v>
@@ -26332,7 +26528,7 @@
         <v>381</v>
       </c>
       <c r="I159" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -26343,7 +26539,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B160" t="s">
         <v>378</v>
@@ -26352,7 +26548,7 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -26367,7 +26563,7 @@
         <v>381</v>
       </c>
       <c r="I160" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -26378,7 +26574,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B161" t="s">
         <v>378</v>
@@ -26402,7 +26598,7 @@
         <v>381</v>
       </c>
       <c r="I161" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -26413,7 +26609,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B162" t="s">
         <v>378</v>
@@ -26437,7 +26633,7 @@
         <v>381</v>
       </c>
       <c r="I162" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -26448,7 +26644,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B163" t="s">
         <v>378</v>
@@ -26472,7 +26668,7 @@
         <v>381</v>
       </c>
       <c r="I163" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -26483,7 +26679,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B164" t="s">
         <v>378</v>
@@ -26507,7 +26703,7 @@
         <v>381</v>
       </c>
       <c r="I164" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -26518,7 +26714,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B165" t="s">
         <v>378</v>
@@ -26542,7 +26738,7 @@
         <v>381</v>
       </c>
       <c r="I165" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -26551,18 +26747,96 @@
         <v>379</v>
       </c>
     </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E167" s="5">
+        <v>0</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:C71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26583,151 +26857,445 @@
         <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" t="s">
-        <v>511</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>512</v>
-      </c>
-      <c r="B4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" t="s">
-        <v>514</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C5" t="s">
-        <v>517</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C6" t="s">
-        <v>520</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C7" t="s">
-        <v>523</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B8" t="s">
-        <v>525</v>
-      </c>
-      <c r="C8" t="s">
-        <v>526</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>527</v>
-      </c>
-      <c r="B9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C9" t="s">
-        <v>529</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>532</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B11" t="s">
-        <v>534</v>
-      </c>
-      <c r="C11" t="s">
-        <v>535</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>536</v>
-      </c>
-      <c r="B12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" t="s">
-        <v>537</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B13" t="s">
-        <v>466</v>
-      </c>
-      <c r="C13" t="s">
-        <v>537</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>539</v>
-      </c>
-      <c r="B14" t="s">
-        <v>540</v>
-      </c>
-      <c r="C14" t="s">
-        <v>541</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="C15" t="s">
-        <v>705</v>
-      </c>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B20" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>516</v>
+      </c>
+      <c r="B29" t="s">
+        <v>517</v>
+      </c>
+      <c r="C29" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B39" t="s">
+        <v>519</v>
+      </c>
+      <c r="C39" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C41" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>522</v>
+      </c>
+      <c r="B43" t="s">
+        <v>523</v>
+      </c>
+      <c r="C43" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B45" t="s">
+        <v>525</v>
+      </c>
+      <c r="C45" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>526</v>
+      </c>
+      <c r="B48" t="s">
+        <v>465</v>
+      </c>
+      <c r="C48" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>528</v>
+      </c>
+      <c r="B49" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>529</v>
+      </c>
+      <c r="B50" t="s">
+        <v>530</v>
+      </c>
+      <c r="C50" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>531</v>
+      </c>
+      <c r="B54" t="s">
+        <v>532</v>
+      </c>
+      <c r="C54" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26744,10 +27312,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="B1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -26755,7 +27323,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -26763,7 +27331,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -26794,16 +27362,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B1" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="C1" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="E1" t="s">
         <v>173</v>
@@ -26821,10 +27389,10 @@
         <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -26832,7 +27400,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="C2">
         <v>20150901</v>
@@ -26887,28 +27455,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B1" t="s">
         <v>505</v>
       </c>
       <c r="C1" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="D1" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="E1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="F1" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="G1" t="s">
         <v>173</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -26942,7 +27510,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -26968,7 +27536,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -26994,7 +27562,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -27020,7 +27588,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -27046,7 +27614,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -27089,16 +27657,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B1" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C1" t="s">
         <v>173</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -27106,7 +27674,7 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -27120,7 +27688,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -27134,7 +27702,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -27148,7 +27716,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -27162,7 +27730,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -27176,7 +27744,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -27190,7 +27758,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -27204,7 +27772,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -27218,7 +27786,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -27232,7 +27800,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -27246,7 +27814,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -27260,7 +27828,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -27274,7 +27842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -27290,9 +27858,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:I69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27327,7 +27897,7 @@
         <v>479</v>
       </c>
       <c r="I1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -28179,7 +28749,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -28208,7 +28778,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -28237,7 +28807,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -28266,7 +28836,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -28295,7 +28865,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -28318,19 +28888,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>828</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -28347,13 +28917,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -28365,24 +28935,24 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -28397,7 +28967,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -28405,13 +28975,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -28426,21 +28996,21 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -28458,18 +29028,18 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -28484,7 +29054,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -28492,13 +29062,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -28513,7 +29083,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -28521,13 +29091,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -28536,27 +29106,27 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -28571,21 +29141,21 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -28603,30 +29173,30 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -28637,13 +29207,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -28666,13 +29236,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -28695,13 +29265,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -28724,13 +29294,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -28753,13 +29323,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -28782,13 +29352,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -28811,71 +29381,71 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
+        <v>176</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -28884,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -28898,13 +29468,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -28927,13 +29497,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>472</v>
+        <v>172</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -28956,13 +29526,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -28985,13 +29555,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -29014,13 +29584,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -29035,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -29043,16 +29613,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -29064,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -29072,16 +29642,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -29093,7 +29663,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -29101,13 +29671,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -29122,21 +29692,21 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -29159,13 +29729,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>706</v>
+        <v>551</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -29183,21 +29753,21 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>754</v>
+        <v>694</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -29217,16 +29787,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>837</v>
+        <v>742</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -29241,6 +29811,64 @@
         <v>0</v>
       </c>
       <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>825</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>233</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5">
         <v>0</v>
       </c>
     </row>
@@ -29262,37 +29890,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B1" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="D1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="E1" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="G1" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="H1" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="I1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="J1" t="s">
         <v>173</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -29309,10 +29937,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F2" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -29344,10 +29972,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F3" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -29379,10 +30007,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="F4" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -29414,10 +30042,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F5" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -29449,10 +30077,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F6" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -29484,10 +30112,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F7" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -29519,10 +30147,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F8" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -29554,10 +30182,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F9" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -29589,10 +30217,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
+        <v>718</v>
+      </c>
+      <c r="F10" t="s">
         <v>730</v>
-      </c>
-      <c r="F10" t="s">
-        <v>742</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -29624,10 +30252,10 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F11" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -29659,10 +30287,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F12" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -29694,10 +30322,10 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="F13" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -29729,10 +30357,10 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="F14" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -29764,10 +30392,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F15" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -29799,10 +30427,10 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F16" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -29834,10 +30462,10 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F17" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -29869,10 +30497,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F18" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -29921,27 +30549,27 @@
         <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D1" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="E1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="G1" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -29961,10 +30589,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="B3" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -29984,10 +30612,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="B4" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -30007,10 +30635,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="B5" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -30030,10 +30658,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="B6" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -30053,10 +30681,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="B7" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -30076,10 +30704,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B8" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -30099,10 +30727,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B9" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -30122,10 +30750,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -30145,10 +30773,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="B11" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -30187,50 +30815,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="B1" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="B2" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="B3" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="B4" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B6" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -30931,7 +31559,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -30939,7 +31567,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -30947,7 +31575,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -30955,7 +31583,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -30963,7 +31591,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -30971,7 +31599,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -30979,7 +31607,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -30987,7 +31615,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -30995,7 +31623,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -31003,7 +31631,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -31011,7 +31639,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -31019,7 +31647,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -31027,7 +31655,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -31035,7 +31663,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -31043,7 +31671,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -31051,7 +31679,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -31059,7 +31687,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -31075,7 +31703,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -31083,7 +31711,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -31091,7 +31719,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -31099,7 +31727,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -31107,7 +31735,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -31115,7 +31743,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -31123,7 +31751,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -31131,7 +31759,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -31141,9 +31769,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242:B244"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -32124,7 +32754,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -32132,7 +32762,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -32140,7 +32770,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -32148,7 +32778,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -32156,7 +32786,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -32164,7 +32794,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -32172,7 +32802,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -32180,7 +32810,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -32188,7 +32818,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -32196,7 +32826,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -32204,7 +32834,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -32212,7 +32842,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -32220,7 +32850,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -32228,7 +32858,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -32236,7 +32866,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -32244,7 +32874,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -32252,7 +32882,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -32260,7 +32890,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -32268,7 +32898,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -32276,7 +32906,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -32284,7 +32914,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -32292,7 +32922,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -32300,7 +32930,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -32308,7 +32938,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -32316,7 +32946,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -32324,7 +32954,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -32332,7 +32962,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -32340,7 +32970,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -32348,7 +32978,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -32356,7 +32986,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -32364,7 +32994,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -32372,7 +33002,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -32380,7 +33010,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -32388,7 +33018,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -32396,7 +33026,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -32404,7 +33034,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -32412,7 +33042,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -32420,7 +33050,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -32428,7 +33058,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -32436,7 +33066,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -32444,7 +33074,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -32452,7 +33082,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -32460,7 +33090,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -32468,7 +33098,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -32476,7 +33106,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -32484,7 +33114,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -32492,7 +33122,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -32500,7 +33130,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -32508,7 +33138,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -32516,7 +33146,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -32524,7 +33154,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -32532,7 +33162,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -32540,7 +33170,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -32548,7 +33178,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -32556,7 +33186,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -32564,7 +33194,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -32572,7 +33202,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -32580,7 +33210,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -32588,7 +33218,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -32596,7 +33226,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -32604,7 +33234,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -32612,7 +33242,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -32620,7 +33250,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -32628,7 +33258,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -32636,7 +33266,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -32644,7 +33274,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -32652,7 +33282,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -32660,7 +33290,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -32668,7 +33298,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -32676,7 +33306,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -32684,7 +33314,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -32692,7 +33322,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -32700,7 +33330,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -32708,7 +33338,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -32716,7 +33346,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -32724,7 +33354,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -32732,7 +33362,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -32740,7 +33370,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -32748,7 +33378,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -32756,7 +33386,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -32764,7 +33394,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -32772,7 +33402,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -32780,7 +33410,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -32788,7 +33418,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -32796,7 +33426,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -32804,7 +33434,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -32812,7 +33442,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -32820,7 +33450,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -32828,7 +33458,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -32836,7 +33466,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -32844,7 +33474,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -32852,7 +33482,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -32860,7 +33490,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -32868,7 +33498,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -32876,7 +33506,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -32884,7 +33514,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -32892,7 +33522,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -32900,7 +33530,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -32908,7 +33538,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -32916,7 +33546,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -32924,7 +33554,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -32932,7 +33562,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -32940,7 +33570,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -32948,7 +33578,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -32956,7 +33586,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -32964,7 +33594,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -32972,7 +33602,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -32980,7 +33610,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -32988,7 +33618,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -32996,7 +33626,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -33004,7 +33634,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -33012,7 +33642,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -33020,7 +33650,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -33028,7 +33658,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -33036,7 +33666,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -33044,7 +33674,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -33052,7 +33682,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -33060,7 +33690,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -33068,7 +33698,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -33076,6 +33706,30 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="5">
+        <v>240</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="5">
+        <v>241</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
+        <v>242</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>831</v>
       </c>
     </row>
@@ -33655,7 +34309,7 @@
         <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -33763,7 +34417,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -33813,7 +34467,7 @@
         <v>480</v>
       </c>
       <c r="G1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -34094,10 +34748,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B14" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -34163,10 +34817,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B17" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C17">
         <v>0</v>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="891">
   <si>
     <t>SourceID</t>
   </si>
@@ -2716,6 +2716,9 @@
   </si>
   <si>
     <t>The timecard date and number of changes with incorrect change categories is shown below:</t>
+  </si>
+  <si>
+    <t>Updated Email_Notifications to support Pending Employee Review Generic DTT Feed</t>
   </si>
 </sst>
 </file>
@@ -3087,10 +3090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4082,6 +4085,23 @@
       </c>
       <c r="E59" t="s">
         <v>827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C60" t="s">
+        <v>432</v>
+      </c>
+      <c r="D60">
+        <v>8597</v>
+      </c>
+      <c r="E60" t="s">
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -20951,11 +20971,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:I167"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26748,31 +26766,31 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+      <c r="A166" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" t="s">
         <v>832</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" t="s">
         <v>3</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" t="s">
         <v>828</v>
       </c>
-      <c r="E166" s="5">
-        <v>0</v>
-      </c>
-      <c r="F166" s="5" t="s">
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166" t="s">
         <v>26</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="G166" t="s">
         <v>425</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="H166" t="s">
         <v>386</v>
       </c>
-      <c r="I166" s="5" t="s">
+      <c r="I166" t="s">
         <v>473</v>
       </c>
       <c r="J166">
@@ -26783,37 +26801,72 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
+      <c r="A167" t="s">
         <v>92</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" t="s">
         <v>3</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" t="s">
         <v>470</v>
       </c>
-      <c r="E167" s="5">
-        <v>0</v>
-      </c>
-      <c r="F167" s="5" t="s">
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" t="s">
         <v>26</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="G167" t="s">
         <v>425</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="H167" t="s">
         <v>386</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I167" t="s">
         <v>833</v>
       </c>
       <c r="J167">
         <v>1</v>
       </c>
       <c r="K167" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168" t="s">
         <v>175</v>
       </c>
     </row>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="892">
   <si>
     <t>SourceID</t>
   </si>
@@ -2719,6 +2719,9 @@
   </si>
   <si>
     <t>Updated Email_Notifications to support Pending Employee Review Generic DTT Feed</t>
+  </si>
+  <si>
+    <t>Updated Email_Notifications to support Pending Employee Review Generic DTT Feed (fixed incorrect Subject value from doc review feeedback)</t>
   </si>
 </sst>
 </file>
@@ -3090,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4102,6 +4105,23 @@
       </c>
       <c r="E60" t="s">
         <v>890</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>53.1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43021</v>
+      </c>
+      <c r="C61" t="s">
+        <v>432</v>
+      </c>
+      <c r="D61">
+        <v>8597</v>
+      </c>
+      <c r="E61" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -20973,7 +20993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26858,7 +26880,7 @@
         <v>425</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I168" s="5" t="s">
         <v>473</v>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="897">
   <si>
     <t>SourceID</t>
   </si>
@@ -2722,6 +2722,21 @@
   </si>
   <si>
     <t>Updated Email_Notifications to support Pending Employee Review Generic DTT Feed (fixed incorrect Subject value from doc review feeedback)</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Analytics Reporting</t>
+  </si>
+  <si>
+    <t>Production Planning</t>
+  </si>
+  <si>
+    <t>Program Analyst</t>
+  </si>
+  <si>
+    <t>Additional Modules to support BRL and BRN feeds. Upadted DIM_Module and Email_Notifications tabs</t>
   </si>
 </sst>
 </file>
@@ -3093,10 +3108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4122,6 +4137,23 @@
       </c>
       <c r="E61" t="s">
         <v>891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>54</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43056</v>
+      </c>
+      <c r="C62" t="s">
+        <v>432</v>
+      </c>
+      <c r="D62">
+        <v>8793</v>
+      </c>
+      <c r="E62" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -20991,10 +21023,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:XFD174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26858,31 +26890,31 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
+      <c r="A168" t="s">
         <v>175</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" t="s">
         <v>832</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" t="s">
         <v>828</v>
       </c>
-      <c r="E168" s="5">
-        <v>0</v>
-      </c>
-      <c r="F168" s="5" t="s">
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168" t="s">
         <v>177</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="G168" t="s">
         <v>425</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="H168" t="s">
         <v>383</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="I168" t="s">
         <v>473</v>
       </c>
       <c r="J168">
@@ -26890,6 +26922,216 @@
       </c>
       <c r="K168" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="J169" s="5">
+        <v>0</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="5">
+        <v>0</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="5">
+        <v>0</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -34361,9 +34603,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -34505,6 +34749,86 @@
       </c>
       <c r="F7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="899">
   <si>
     <t>SourceID</t>
   </si>
@@ -2737,6 +2737,12 @@
   </si>
   <si>
     <t>Additional Modules to support BRL and BRN feeds. Upadted DIM_Module and Email_Notifications tabs</t>
+  </si>
+  <si>
+    <t>Attendance Improvement Discussion</t>
+  </si>
+  <si>
+    <t>New sub-coaching reason to Attendance for CSR and Supervisor. Updated Dim SubCoaching Reason and Coaching Reason Selection tabs.</t>
   </si>
 </sst>
 </file>
@@ -3108,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4154,6 +4160,23 @@
       </c>
       <c r="E62" t="s">
         <v>896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43067</v>
+      </c>
+      <c r="C63" t="s">
+        <v>432</v>
+      </c>
+      <c r="D63">
+        <v>9091</v>
+      </c>
+      <c r="E63" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -5579,9 +5602,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P306"/>
+  <dimension ref="A1:P307"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307:P307"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20886,6 +20911,56 @@
       </c>
       <c r="P306">
         <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A307" s="5">
+        <v>3</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C307" s="5">
+        <v>243</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E307" s="5">
+        <v>1</v>
+      </c>
+      <c r="F307" s="5">
+        <v>1</v>
+      </c>
+      <c r="G307" s="5">
+        <v>1</v>
+      </c>
+      <c r="H307" s="5">
+        <v>1</v>
+      </c>
+      <c r="I307" s="5">
+        <v>1</v>
+      </c>
+      <c r="J307" s="5">
+        <v>1</v>
+      </c>
+      <c r="K307" s="5">
+        <v>0</v>
+      </c>
+      <c r="L307" s="5">
+        <v>1</v>
+      </c>
+      <c r="M307" s="5">
+        <v>0</v>
+      </c>
+      <c r="N307" s="5">
+        <v>0</v>
+      </c>
+      <c r="O307" s="5">
+        <v>0</v>
+      </c>
+      <c r="P307" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32086,10 +32161,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:B244"/>
+    <sheetView topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="B245" sqref="A245:B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34027,27 +34102,35 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="5">
+      <c r="A242">
         <v>240</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="5">
+      <c r="A243">
         <v>241</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="5">
+      <c r="A244">
         <v>242</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" t="s">
         <v>831</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
+        <v>243</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
+++ b/Design/DD/DB/CCO_eCoaching_Dimension_Table_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22992" windowHeight="12840" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="900">
   <si>
     <t>SourceID</t>
   </si>
@@ -2743,6 +2743,9 @@
   </si>
   <si>
     <t>New sub-coaching reason to Attendance for CSR and Supervisor. Updated Dim SubCoaching Reason and Coaching Reason Selection tabs.</t>
+  </si>
+  <si>
+    <t>Set Arlington to Inactive in DIM Site table and WISO13 to 0 for all modules in Employee selection table</t>
   </si>
 </sst>
 </file>
@@ -3114,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4177,6 +4180,23 @@
       </c>
       <c r="E63" t="s">
         <v>898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>56</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43073</v>
+      </c>
+      <c r="C64" t="s">
+        <v>432</v>
+      </c>
+      <c r="D64">
+        <v>9210</v>
+      </c>
+      <c r="E64" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -31365,11 +31385,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -31379,7 +31397,7 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -31392,8 +31410,11 @@
       <c r="D1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -31406,8 +31427,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -31420,8 +31444,11 @@
       <c r="D3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -31434,8 +31461,11 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -31448,8 +31478,11 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -31462,8 +31495,11 @@
       <c r="D6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -31476,8 +31512,11 @@
       <c r="D7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -31490,8 +31529,11 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -31504,8 +31546,11 @@
       <c r="D9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -31518,8 +31563,11 @@
       <c r="D10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -31532,8 +31580,11 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -31546,8 +31597,11 @@
       <c r="D12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -31560,8 +31614,11 @@
       <c r="D13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -31574,8 +31631,11 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -31588,8 +31648,11 @@
       <c r="D15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -31602,8 +31665,11 @@
       <c r="D16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -31616,8 +31682,11 @@
       <c r="D17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -31630,8 +31699,11 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -31644,8 +31716,11 @@
       <c r="D19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -31658,8 +31733,11 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -31671,6 +31749,9 @@
       </c>
       <c r="D21" t="s">
         <v>81</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34921,11 +35002,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -35075,13 +35154,13 @@
         <v>258</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -35317,29 +35396,6 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
         <v>1</v>
       </c>
     </row>
